--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,25 +647,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M2" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.4</v>
       </c>
       <c r="N2" t="n">
         <v>2.1</v>
@@ -692,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W2" t="n">
         <v>23</v>
@@ -838,7 +838,7 @@
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O4" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -963,16 +963,16 @@
         <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1025,25 +1025,25 @@
         <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
         <v>2.63</v>
@@ -1135,13 +1135,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H6" t="n">
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
         <v>1.08</v>
@@ -1162,10 +1162,10 @@
         <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
         <v>1.95</v>
@@ -1177,7 +1177,7 @@
         <v>6.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V6" t="n">
         <v>9</v>
@@ -1192,13 +1192,13 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC6" t="n">
         <v>51</v>
@@ -1228,7 +1228,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0CtSfAJU</t>
+          <t>praYAeGd</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1238,119 +1238,119 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE ASCENSO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>S. Morning</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rangers</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="N7" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.62</v>
+        <v>2.38</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>8.25</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="V7" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="W7" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="X7" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xYe20Ekg</t>
+          <t>MFUlRejA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1360,119 +1360,119 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE ASCENSO</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Copiapo</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>S. Wanderers</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.85</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.88</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U8" t="n">
         <v>7</v>
       </c>
-      <c r="U8" t="n">
-        <v>9.25</v>
-      </c>
       <c r="V8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>600</v>
+        <v>351</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AJ8" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4Mhzcuq1</t>
+          <t>fFRZu5Xj</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1482,98 +1482,98 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CHILE - LIGA DE ASCENSO</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Deportes Temuco</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>San Marcos de Arica</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K9" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O9" t="n">
         <v>2.05</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.72</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U9" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="n">
-        <v>800</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.75</v>
+        <v>12</v>
       </c>
       <c r="AF9" t="n">
         <v>17</v>
@@ -1582,19 +1582,19 @@
         <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>praYAeGd</t>
+          <t>jVp1RQDr</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1604,119 +1604,119 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.13</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="U10" t="n">
+        <v>26</v>
+      </c>
+      <c r="V10" t="n">
+        <v>15</v>
+      </c>
+      <c r="W10" t="n">
+        <v>41</v>
+      </c>
+      <c r="X10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG10" t="n">
         <v>9</v>
       </c>
-      <c r="V10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="AH10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>19</v>
-      </c>
-      <c r="X10" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KbSP4c0E</t>
+          <t>bel9P4re</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1726,115 +1726,119 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cucuta</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>5.25</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15</v>
+      </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="O11" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.42</v>
+        <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.75</v>
+        <v>15</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>400</v>
+        <v>151</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.75</v>
+        <v>29</v>
       </c>
       <c r="AG11" t="n">
-        <v>7.6</v>
+        <v>17</v>
       </c>
       <c r="AH11" t="n">
-        <v>15.5</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MFUlRejA</t>
+          <t>v5dHNrD7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1844,119 +1848,119 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>2.05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="M12" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.53</v>
       </c>
       <c r="O12" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="P12" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U12" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>7.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AD12" t="n">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AE12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
         <v>15</v>
       </c>
-      <c r="AF12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AJ12" t="n">
         <v>19</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>fFRZu5Xj</t>
+          <t>jL3He6Mi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1966,32 +1970,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2018,67 +2022,67 @@
         <v>3.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T13" t="n">
+        <v>11</v>
+      </c>
+      <c r="U13" t="n">
+        <v>15</v>
+      </c>
+      <c r="V13" t="n">
         <v>10</v>
       </c>
-      <c r="U13" t="n">
-        <v>12</v>
-      </c>
-      <c r="V13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W13" t="n">
+        <v>26</v>
+      </c>
+      <c r="X13" t="n">
         <v>21</v>
       </c>
-      <c r="X13" t="n">
-        <v>17</v>
-      </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
         <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jVp1RQDr</t>
+          <t>QJBVyCVI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2088,119 +2092,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.1</v>
       </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>4.1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="T14" t="n">
-        <v>19</v>
+        <v>9.5</v>
       </c>
       <c r="U14" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="W14" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>8.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>34</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bel9P4re</t>
+          <t>tSgIaFNP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2210,32 +2214,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2280,7 +2284,7 @@
         <v>13</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -2289,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="AA15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2301,7 +2305,7 @@
         <v>151</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>26</v>
@@ -2322,7 +2326,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>v5dHNrD7</t>
+          <t>xbulfgom</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2332,119 +2336,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>1.53</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="O16" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="P16" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U16" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="V16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W16" t="n">
         <v>12</v>
       </c>
-      <c r="W16" t="n">
-        <v>34</v>
-      </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
         <v>23</v>
       </c>
       <c r="Z16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB16" t="n">
         <v>17</v>
       </c>
-      <c r="AA16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
       <c r="AC16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AE16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>jL3He6Mi</t>
+          <t>d0ekhXFa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2464,52 +2468,52 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="O17" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T17" t="n">
         <v>11</v>
@@ -2524,16 +2528,16 @@
         <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2548,13 +2552,13 @@
         <v>11</v>
       </c>
       <c r="AF17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
         <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -2566,7 +2570,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>QJBVyCVI</t>
+          <t>4QbcjBpC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2586,22 +2590,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Hodd</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J18" t="n">
         <v>1.03</v>
@@ -2628,52 +2632,52 @@
         <v>3.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
+        <v>17</v>
+      </c>
+      <c r="X18" t="n">
         <v>13</v>
       </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
@@ -2682,13 +2686,13 @@
         <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tSgIaFNP</t>
+          <t>OEBVX2Up</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2708,22 +2712,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="H19" t="n">
         <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2732,16 +2736,16 @@
         <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M19" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N19" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P19" t="n">
         <v>1.3</v>
@@ -2750,22 +2754,22 @@
         <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
@@ -2777,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
@@ -2789,28 +2793,28 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI19" t="n">
         <v>26</v>
       </c>
-      <c r="AG19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>xbulfgom</t>
+          <t>dKZmoefA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2825,81 +2829,81 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>1.85</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K20" t="n">
+        <v>10</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>10</v>
+      </c>
+      <c r="U20" t="n">
+        <v>21</v>
+      </c>
+      <c r="V20" t="n">
         <v>15</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W20" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AA20" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
@@ -2908,31 +2912,31 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AE20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH20" t="n">
         <v>15</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AI20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>29</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>d0ekhXFa</t>
+          <t>ALbixpUp</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2947,63 +2951,63 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M21" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N21" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="O21" t="n">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="P21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="U21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V21" t="n">
         <v>10</v>
@@ -3012,16 +3016,16 @@
         <v>26</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
         <v>12</v>
@@ -3030,13 +3034,13 @@
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
         <v>10</v>
@@ -3045,16 +3049,16 @@
         <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>4QbcjBpC</t>
+          <t>vV7K3EC7</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3069,114 +3073,114 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Hodd</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="O22" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="P22" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
         <v>10</v>
       </c>
       <c r="V22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>19</v>
+      </c>
+      <c r="X22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z22" t="n">
         <v>8.5</v>
       </c>
-      <c r="W22" t="n">
-        <v>13</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="AA22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG22" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AH22" t="n">
         <v>41</v>
       </c>
-      <c r="AD22" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>51</v>
-      </c>
       <c r="AI22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>OEBVX2Up</t>
+          <t>WOf6RH4E</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3186,119 +3190,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.6</v>
+        <v>2.38</v>
       </c>
       <c r="J23" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="K23" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="N23" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="O23" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="T23" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="U23" t="n">
+        <v>13</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12</v>
+      </c>
+      <c r="W23" t="n">
+        <v>34</v>
+      </c>
+      <c r="X23" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10</v>
       </c>
-      <c r="V23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>17</v>
-      </c>
-      <c r="X23" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
+      <c r="AH23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>41</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dKZmoefA</t>
+          <t>Kbv3izQ6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3308,68 +3312,68 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="R24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="V24" t="n">
         <v>13</v>
@@ -3384,43 +3388,43 @@
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD24" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ALbixpUp</t>
+          <t>YPQDyQa6</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3430,119 +3434,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>7</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N25" t="n">
         <v>2.6</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K25" t="n">
-        <v>10</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.93</v>
-      </c>
       <c r="O25" t="n">
-        <v>1.93</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S25" t="n">
         <v>1.67</v>
       </c>
-      <c r="S25" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T25" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="U25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="W25" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="n">
-        <v>151</v>
+        <v>900</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vV7K3EC7</t>
+          <t>8EJ9Xz56</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3552,119 +3556,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H26" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="K26" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="N26" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="R26" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="U26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V26" t="n">
         <v>10</v>
       </c>
-      <c r="V26" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AD26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>41</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WOf6RH4E</t>
+          <t>xjsTqjuf</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3674,119 +3678,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.88</v>
+        <v>2.35</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L27" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="M27" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="N27" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.83</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U27" t="n">
+        <v>11</v>
+      </c>
+      <c r="V27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>23</v>
+      </c>
+      <c r="X27" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF27" t="n">
         <v>13</v>
-      </c>
-      <c r="V27" t="n">
-        <v>12</v>
-      </c>
-      <c r="W27" t="n">
-        <v>29</v>
-      </c>
-      <c r="X27" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>11</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kbv3izQ6</t>
+          <t>OnHgVjQ0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3796,119 +3800,119 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="H28" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J28" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K28" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.5</v>
       </c>
-      <c r="M28" t="n">
+      <c r="Q28" t="n">
         <v>2.5</v>
       </c>
-      <c r="N28" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R28" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="W28" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y28" t="n">
         <v>34</v>
       </c>
-      <c r="Y28" t="n">
-        <v>41</v>
-      </c>
       <c r="Z28" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
       </c>
       <c r="AJ28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YPQDyQa6</t>
+          <t>8nLwHSuS</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3918,110 +3922,110 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Umea FC</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L29" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="M29" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="O29" t="n">
-        <v>1.48</v>
+        <v>2.05</v>
       </c>
       <c r="P29" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="T29" t="n">
         <v>7.5</v>
       </c>
       <c r="U29" t="n">
+        <v>8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>12</v>
+      </c>
+      <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE29" t="n">
         <v>15</v>
       </c>
-      <c r="V29" t="n">
-        <v>12</v>
-      </c>
-      <c r="W29" t="n">
-        <v>34</v>
-      </c>
-      <c r="X29" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y29" t="n">
+      <c r="AF29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI29" t="n">
         <v>41</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>41</v>
@@ -4030,7 +4034,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8EJ9Xz56</t>
+          <t>0WnwlnEL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4040,119 +4044,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="I30" t="n">
-        <v>3.7</v>
+        <v>2.27</v>
       </c>
       <c r="J30" t="n">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>6</v>
+        <v>7.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="M30" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="N30" t="n">
-        <v>2.88</v>
+        <v>1.87</v>
       </c>
       <c r="O30" t="n">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="P30" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.67</v>
       </c>
       <c r="R30" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="S30" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="T30" t="n">
-        <v>5.5</v>
+        <v>9.75</v>
       </c>
       <c r="U30" t="n">
+        <v>16</v>
+      </c>
+      <c r="V30" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>37</v>
+      </c>
+      <c r="X30" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG30" t="n">
         <v>9</v>
       </c>
-      <c r="V30" t="n">
-        <v>10</v>
-      </c>
-      <c r="W30" t="n">
-        <v>21</v>
-      </c>
-      <c r="X30" t="n">
+      <c r="AH30" t="n">
         <v>23</v>
       </c>
-      <c r="Y30" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>41</v>
-      </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>xjsTqjuf</t>
+          <t>hURHt46e</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4162,119 +4166,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.45</v>
+        <v>1.88</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I31" t="n">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M31" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="N31" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="T31" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>350</v>
       </c>
       <c r="AE31" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AJ31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OnHgVjQ0</t>
+          <t>KGT9rQyq</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4284,119 +4288,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Etoile-Carouge</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.63</v>
+        <v>1.72</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>2.63</v>
+        <v>4.15</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U32" t="n">
         <v>9</v>
       </c>
-      <c r="L32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>12</v>
-      </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="W32" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Z32" t="n">
         <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="AB32" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC32" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AD32" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AG32" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AJ32" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8nLwHSuS</t>
+          <t>ldLQvry8</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4406,119 +4410,119 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Umea FC</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>3.45</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>8.25</v>
       </c>
       <c r="L33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M33" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O33" t="n">
         <v>2.05</v>
       </c>
       <c r="P33" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="Q33" t="n">
         <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>1.95</v>
+        <v>2.18</v>
       </c>
       <c r="T33" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="U33" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="V33" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W33" t="n">
+        <v>45</v>
+      </c>
+      <c r="X33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG33" t="n">
         <v>8.5</v>
       </c>
-      <c r="W33" t="n">
-        <v>12</v>
-      </c>
-      <c r="X33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
-      </c>
       <c r="AH33" t="n">
-        <v>51</v>
+        <v>17.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>0WnwlnEL</t>
+          <t>QHWnkb9C</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4528,119 +4532,119 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H34" t="n">
         <v>3.1</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I34" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="J34" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>7.3</v>
+        <v>9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="O34" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R34" t="n">
         <v>1.83</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S34" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="T34" t="n">
+        <v>8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12</v>
+      </c>
+      <c r="V34" t="n">
         <v>10</v>
       </c>
-      <c r="U34" t="n">
-        <v>17</v>
-      </c>
-      <c r="V34" t="n">
-        <v>10.75</v>
-      </c>
       <c r="W34" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="X34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH34" t="n">
         <v>26</v>
       </c>
-      <c r="Y34" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>21</v>
-      </c>
       <c r="AI34" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hURHt46e</t>
+          <t>0WUQmSkJ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4650,119 +4654,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>CA Cerro</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="M35" t="n">
-        <v>3.7</v>
+        <v>2.38</v>
       </c>
       <c r="N35" t="n">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="O35" t="n">
-        <v>2.02</v>
+        <v>1.44</v>
       </c>
       <c r="P35" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.92</v>
+        <v>2.2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="S35" t="n">
-        <v>2.12</v>
+        <v>1.57</v>
       </c>
       <c r="T35" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="U35" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="V35" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="W35" t="n">
-        <v>16.5</v>
+        <v>29</v>
       </c>
       <c r="X35" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="Y35" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB35" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AD35" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH35" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KGT9rQyq</t>
+          <t>6XyIklL6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4772,600 +4776,112 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="N36" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="O36" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="P36" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R36" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="U36" t="n">
+        <v>8</v>
+      </c>
+      <c r="V36" t="n">
         <v>9</v>
       </c>
-      <c r="V36" t="n">
-        <v>8.25</v>
-      </c>
       <c r="W36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
         <v>8.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AE36" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG36" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AH36" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AI36" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>ldLQvry8</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>31/03/2025</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>15:15</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Lausanne Ouchy</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Thun</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K37" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>12</v>
-      </c>
-      <c r="U37" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="W37" t="n">
-        <v>45</v>
-      </c>
-      <c r="X37" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>300</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>QHWnkb9C</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>31/03/2025</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Basaksehir</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H38" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K38" t="n">
-        <v>9</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T38" t="n">
-        <v>8</v>
-      </c>
-      <c r="U38" t="n">
-        <v>12</v>
-      </c>
-      <c r="V38" t="n">
-        <v>10</v>
-      </c>
-      <c r="W38" t="n">
-        <v>26</v>
-      </c>
-      <c r="X38" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>0WUQmSkJ</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>31/03/2025</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>19:00</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>CA Cerro</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>12</v>
-      </c>
-      <c r="V39" t="n">
-        <v>11</v>
-      </c>
-      <c r="W39" t="n">
-        <v>29</v>
-      </c>
-      <c r="X39" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>6XyIklL6</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>31/03/2025</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>21:15</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Defensor Sp.</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Miramar</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K40" t="n">
-        <v>9</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U40" t="n">
-        <v>8</v>
-      </c>
-      <c r="V40" t="n">
-        <v>9</v>
-      </c>
-      <c r="W40" t="n">
-        <v>13</v>
-      </c>
-      <c r="X40" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="n">
         <v>41</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
         <v>1.36</v>
@@ -689,19 +689,19 @@
         <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>10</v>
       </c>
       <c r="W2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X2" t="n">
         <v>21</v>
       </c>
       <c r="Y2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
         <v>8.5</v>
@@ -719,19 +719,19 @@
         <v>251</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>34</v>
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="O4" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -1028,22 +1028,22 @@
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="M5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Q5" t="n">
         <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.03</v>
       </c>
       <c r="R5" t="n">
         <v>2.63</v>
@@ -1156,10 +1156,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1266,10 +1266,10 @@
         <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1379,46 +1379,46 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
         <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="T8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U8" t="n">
         <v>7</v>
@@ -1430,16 +1430,16 @@
         <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB8" t="n">
         <v>19</v>
@@ -1457,10 +1457,10 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
         <v>51</v>
@@ -1623,19 +1623,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J10" t="n">
         <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L10" t="n">
         <v>1.13</v>
@@ -1656,31 +1656,31 @@
         <v>3.75</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T10" t="n">
         <v>19</v>
       </c>
       <c r="U10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W10" t="n">
         <v>41</v>
       </c>
       <c r="X10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA10" t="n">
         <v>8.5</v>
@@ -1698,16 +1698,16 @@
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG10" t="n">
         <v>9</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -1745,19 +1745,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
       </c>
       <c r="K11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11" t="n">
         <v>1.18</v>
@@ -1778,10 +1778,10 @@
         <v>3.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T11" t="n">
         <v>9</v>
@@ -1793,7 +1793,7 @@
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1808,7 +1808,7 @@
         <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC11" t="n">
         <v>41</v>
@@ -1829,10 +1829,10 @@
         <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
@@ -2605,7 +2605,7 @@
         <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>1.03</v>
@@ -2653,13 +2653,13 @@
         <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB18" t="n">
         <v>12</v>
@@ -2671,7 +2671,7 @@
         <v>126</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>23</v>
@@ -2980,16 +2980,16 @@
         <v>11</v>
       </c>
       <c r="L21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N21" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O21" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -3099,7 +3099,7 @@
         <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.36</v>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>1.4</v>
@@ -3858,7 +3858,7 @@
         <v>1.8</v>
       </c>
       <c r="T28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U28" t="n">
         <v>12</v>
@@ -3876,31 +3876,31 @@
         <v>34</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>51</v>
       </c>
       <c r="AD28" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE28" t="n">
         <v>7.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
@@ -4063,37 +4063,37 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="J30" t="n">
         <v>1.06</v>
       </c>
       <c r="K30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M30" t="n">
         <v>3.25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O30" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P30" t="n">
         <v>1.42</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="R30" t="n">
         <v>1.7</v>
@@ -4102,25 +4102,25 @@
         <v>2.05</v>
       </c>
       <c r="T30" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="U30" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V30" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA30" t="n">
         <v>6.3</v>
@@ -4138,19 +4138,19 @@
         <v>8.25</v>
       </c>
       <c r="AF30" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
@@ -4429,46 +4429,46 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
         <v>1.95</v>
       </c>
       <c r="J33" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K33" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L33" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="M33" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="N33" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O33" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="P33" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="R33" t="n">
         <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T33" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="U33" t="n">
         <v>20</v>
@@ -4477,40 +4477,40 @@
         <v>11.75</v>
       </c>
       <c r="W33" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AB33" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
         <v>50</v>
       </c>
       <c r="AD33" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE33" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF33" t="n">
         <v>10.25</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AH33" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI33" t="n">
         <v>14.5</v>
@@ -4798,46 +4798,46 @@
         <v>1.75</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="M36" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="N36" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="O36" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R36" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S36" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="T36" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U36" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V36" t="n">
         <v>9</v>
@@ -4846,28 +4846,28 @@
         <v>13</v>
       </c>
       <c r="X36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA36" t="n">
         <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD36" t="n">
         <v>351</v>
       </c>
       <c r="AE36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF36" t="n">
         <v>23</v>
@@ -4882,7 +4882,7 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -790,10 +790,10 @@
         <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -894,10 +894,10 @@
         <v>1.55</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -963,10 +963,10 @@
         <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>19</v>
@@ -1013,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="L5" t="n">
         <v>1.8</v>
@@ -1061,7 +1061,7 @@
         <v>12</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X5" t="n">
         <v>29</v>
@@ -1085,7 +1085,7 @@
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
@@ -1257,13 +1257,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.5</v>
       </c>
       <c r="J7" t="n">
         <v>1.1</v>
@@ -1296,31 +1296,31 @@
         <v>1.67</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>67</v>
@@ -1335,13 +1335,13 @@
         <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>41</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1427,7 +1427,7 @@
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1436,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
         <v>8.5</v>
@@ -1448,7 +1448,7 @@
         <v>51</v>
       </c>
       <c r="AD8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
@@ -1457,10 +1457,10 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="n">
         <v>51</v>
@@ -1635,7 +1635,7 @@
         <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" t="n">
         <v>1.13</v>
@@ -1644,10 +1644,10 @@
         <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O10" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P10" t="n">
         <v>1.25</v>
@@ -1745,13 +1745,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.03</v>
@@ -1760,22 +1760,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M11" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R11" t="n">
         <v>1.67</v>
@@ -1787,28 +1787,28 @@
         <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>41</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J12" t="n">
         <v>1.03</v>
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N12" t="n">
         <v>1.53</v>
@@ -1909,7 +1909,7 @@
         <v>15</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V12" t="n">
         <v>12</v>
@@ -1918,7 +1918,7 @@
         <v>34</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
         <v>23</v>
@@ -1945,7 +1945,7 @@
         <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -2254,10 +2254,10 @@
         <v>4.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P15" t="n">
         <v>1.3</v>
@@ -2620,10 +2620,10 @@
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.29</v>
@@ -2736,16 +2736,16 @@
         <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="P19" t="n">
         <v>1.3</v>
@@ -2793,7 +2793,7 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
@@ -2864,10 +2864,10 @@
         <v>3.25</v>
       </c>
       <c r="N20" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O20" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -3209,13 +3209,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J23" t="n">
         <v>1.1</v>
@@ -3257,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="W23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X23" t="n">
         <v>29</v>
@@ -3281,16 +3281,16 @@
         <v>1250</v>
       </c>
       <c r="AE23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF23" t="n">
         <v>11</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
         <v>23</v>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
         <v>2.7</v>
@@ -3831,31 +3831,31 @@
         <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N28" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O28" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T28" t="n">
         <v>7</v>
@@ -3873,10 +3873,10 @@
         <v>23</v>
       </c>
       <c r="Y28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3885,16 +3885,16 @@
         <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD28" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
@@ -3903,10 +3903,10 @@
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4346,16 +4346,16 @@
         <v>2.1</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U32" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V32" t="n">
         <v>8.25</v>
       </c>
       <c r="W32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="X32" t="n">
         <v>12.5</v>
@@ -4367,10 +4367,10 @@
         <v>8.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AB32" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC32" t="n">
         <v>55</v>
@@ -4379,10 +4379,10 @@
         <v>400</v>
       </c>
       <c r="AE32" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG32" t="n">
         <v>13.5</v>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
@@ -4593,10 +4593,10 @@
         <v>8</v>
       </c>
       <c r="U34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W34" t="n">
         <v>26</v>
@@ -4688,16 +4688,16 @@
         <v>6.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M35" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N35" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P35" t="n">
         <v>1.62</v>
@@ -4718,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="V35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W35" t="n">
         <v>29</v>
@@ -4751,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
         <v>29</v>
@@ -4795,13 +4795,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
         <v>1.1</v>
@@ -4816,16 +4816,16 @@
         <v>2.63</v>
       </c>
       <c r="N36" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="O36" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R36" t="n">
         <v>2.2</v>
@@ -4840,22 +4840,22 @@
         <v>7.5</v>
       </c>
       <c r="V36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB36" t="n">
         <v>19</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -662,28 +662,28 @@
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
         <v>8</v>
@@ -698,25 +698,25 @@
         <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
         <v>8.5</v>
@@ -784,10 +784,10 @@
         <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N3" t="n">
         <v>2.1</v>
@@ -826,7 +826,7 @@
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="O4" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -1025,7 +1025,7 @@
         <v>1.17</v>
       </c>
       <c r="K5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>1.8</v>
@@ -1156,10 +1156,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.04</v>
@@ -1400,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P8" t="n">
         <v>1.33</v>
@@ -1412,13 +1412,13 @@
         <v>3.25</v>
       </c>
       <c r="R8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
         <v>7</v>
@@ -1427,7 +1427,7 @@
         <v>8.5</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
         <v>12</v>
@@ -1457,16 +1457,16 @@
         <v>34</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1626,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
         <v>1.8</v>
@@ -1635,7 +1635,7 @@
         <v>1.02</v>
       </c>
       <c r="K10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L10" t="n">
         <v>1.13</v>
@@ -1665,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="U10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="V10" t="n">
         <v>13</v>
@@ -1745,7 +1745,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
         <v>4.75</v>
@@ -1778,16 +1778,16 @@
         <v>3.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
         <v>9</v>
       </c>
       <c r="U11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB11" t="n">
         <v>17</v>
@@ -1814,13 +1814,13 @@
         <v>41</v>
       </c>
       <c r="AD11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG11" t="n">
         <v>17</v>
@@ -1867,13 +1867,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="J12" t="n">
         <v>1.03</v>
@@ -1882,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="L12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
         <v>1.53</v>
@@ -1906,22 +1906,22 @@
         <v>2.63</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U12" t="n">
+        <v>17</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11</v>
+      </c>
+      <c r="W12" t="n">
+        <v>29</v>
+      </c>
+      <c r="X12" t="n">
         <v>19</v>
       </c>
-      <c r="V12" t="n">
-        <v>12</v>
-      </c>
-      <c r="W12" t="n">
-        <v>34</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>21</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>23</v>
       </c>
       <c r="Z12" t="n">
         <v>17</v>
@@ -1933,25 +1933,25 @@
         <v>11</v>
       </c>
       <c r="AC12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD12" t="n">
         <v>101</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
@@ -1989,13 +1989,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2034,10 +2034,10 @@
         <v>15</v>
       </c>
       <c r="V13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2067,7 +2067,7 @@
         <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH13" t="n">
         <v>23</v>
@@ -2076,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2111,13 +2111,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J14" t="n">
         <v>1.03</v>
@@ -2183,7 +2183,7 @@
         <v>151</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
@@ -2192,10 +2192,10 @@
         <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ14" t="n">
         <v>34</v>
@@ -2254,10 +2254,10 @@
         <v>4.5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P15" t="n">
         <v>1.3</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
         <v>4.75</v>
       </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
         <v>1.22</v>
@@ -2376,10 +2376,10 @@
         <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="O16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P16" t="n">
         <v>1.33</v>
@@ -2388,13 +2388,13 @@
         <v>3.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U16" t="n">
         <v>8</v>
@@ -2406,16 +2406,16 @@
         <v>12</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
         <v>17</v>
@@ -2424,13 +2424,13 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2742,10 +2742,10 @@
         <v>4.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P19" t="n">
         <v>1.3</v>
@@ -2763,16 +2763,16 @@
         <v>9.5</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W19" t="n">
         <v>17</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
@@ -2790,16 +2790,16 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
@@ -2843,31 +2843,31 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M20" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P20" t="n">
         <v>1.44</v>
@@ -2882,7 +2882,7 @@
         <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U20" t="n">
         <v>21</v>
@@ -2891,16 +2891,16 @@
         <v>15</v>
       </c>
       <c r="W20" t="n">
+        <v>51</v>
+      </c>
+      <c r="X20" t="n">
         <v>41</v>
-      </c>
-      <c r="X20" t="n">
-        <v>34</v>
       </c>
       <c r="Y20" t="n">
         <v>41</v>
       </c>
       <c r="Z20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2912,7 +2912,7 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE20" t="n">
         <v>6.5</v>
@@ -2921,13 +2921,13 @@
         <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH20" t="n">
         <v>15</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
@@ -2965,13 +2965,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -3004,7 +3004,7 @@
         <v>2.1</v>
       </c>
       <c r="T21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U21" t="n">
         <v>13</v>
@@ -3028,25 +3028,25 @@
         <v>6</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE21" t="n">
         <v>9.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -3278,7 +3278,7 @@
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
         <v>7</v>
@@ -3331,13 +3331,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
         <v>2.88</v>
       </c>
       <c r="I24" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
         <v>1.11</v>
@@ -3370,7 +3370,7 @@
         <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U24" t="n">
         <v>15</v>
@@ -3379,16 +3379,16 @@
         <v>13</v>
       </c>
       <c r="W24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3403,16 +3403,16 @@
         <v>101</v>
       </c>
       <c r="AE24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF24" t="n">
         <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -3474,10 +3474,10 @@
         <v>2.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
         <v>1.57</v>
@@ -3819,19 +3819,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
         <v>1.08</v>
       </c>
       <c r="K28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L28" t="n">
         <v>1.44</v>
@@ -3861,7 +3861,7 @@
         <v>7</v>
       </c>
       <c r="U28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
         <v>10</v>
@@ -3891,10 +3891,10 @@
         <v>451</v>
       </c>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
@@ -3941,13 +3941,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J29" t="n">
         <v>1.04</v>
@@ -3962,16 +3962,16 @@
         <v>3.75</v>
       </c>
       <c r="N29" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O29" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="P29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R29" t="n">
         <v>1.8</v>
@@ -3995,13 +3995,13 @@
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB29" t="n">
         <v>17</v>
@@ -4013,7 +4013,7 @@
         <v>251</v>
       </c>
       <c r="AE29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
@@ -4063,43 +4063,43 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="M30" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="O30" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R30" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T30" t="n">
         <v>9.5</v>
@@ -4108,49 +4108,49 @@
         <v>16.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W30" t="n">
         <v>40</v>
       </c>
       <c r="X30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
         <v>35</v>
       </c>
       <c r="Z30" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC30" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD30" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AF30" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>22</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
@@ -4185,13 +4185,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="H31" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I31" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4200,16 +4200,16 @@
         <v>8</v>
       </c>
       <c r="L31" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O31" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P31" t="n">
         <v>1.35</v>
@@ -4227,16 +4227,16 @@
         <v>8.25</v>
       </c>
       <c r="U31" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W31" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y31" t="n">
         <v>22</v>
@@ -4245,13 +4245,13 @@
         <v>8</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD31" t="n">
         <v>350</v>
@@ -4260,19 +4260,19 @@
         <v>13</v>
       </c>
       <c r="AF31" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG31" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ31" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -4307,13 +4307,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I32" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J32" t="n">
         <v>1.04</v>
@@ -4340,10 +4340,10 @@
         <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T32" t="n">
         <v>8.25</v>
@@ -4373,22 +4373,22 @@
         <v>14.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD32" t="n">
         <v>400</v>
       </c>
       <c r="AE32" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG32" t="n">
         <v>13.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>35</v>
@@ -4429,67 +4429,67 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="J33" t="n">
         <v>1.05</v>
       </c>
       <c r="K33" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M33" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="P33" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U33" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="V33" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="W33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X33" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y33" t="n">
         <v>32</v>
       </c>
       <c r="Z33" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB33" t="n">
         <v>12.5</v>
@@ -4504,19 +4504,19 @@
         <v>8.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI33" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H34" t="n">
         <v>3.1</v>
       </c>
       <c r="I34" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
@@ -4590,7 +4590,7 @@
         <v>1.83</v>
       </c>
       <c r="T34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U34" t="n">
         <v>13</v>
@@ -4599,7 +4599,7 @@
         <v>11</v>
       </c>
       <c r="W34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X34" t="n">
         <v>23</v>
@@ -4623,19 +4623,19 @@
         <v>301</v>
       </c>
       <c r="AE34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
         <v>10</v>
       </c>
       <c r="AH34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ34" t="n">
         <v>34</v>
@@ -4816,10 +4816,10 @@
         <v>2.63</v>
       </c>
       <c r="N36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ36"/>
+  <dimension ref="A1:AJ40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -778,22 +778,22 @@
         <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -802,10 +802,10 @@
         <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T3" t="n">
         <v>6.5</v>
@@ -826,19 +826,19 @@
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -1228,7 +1228,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>praYAeGd</t>
+          <t>0CtSfAJU</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1238,119 +1238,119 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>S. Morning</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Rangers</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>3.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="N7" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T7" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="U7" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="W7" t="n">
+        <v>45</v>
+      </c>
+      <c r="X7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
         <v>21</v>
       </c>
-      <c r="X7" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFUlRejA</t>
+          <t>xYe20Ekg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1360,119 +1360,119 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 2</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Copiapo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Caen</t>
+          <t>S. Wanderers</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>6.5</v>
+        <v>4.05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="N8" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="O8" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R8" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S8" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="T8" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="V8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W8" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="n">
-        <v>301</v>
+        <v>600</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fFRZu5Xj</t>
+          <t>4Mhzcuq1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1482,119 +1482,119 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>CHILE - LIGA DE ASCENSO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>Deportes Temuco</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>San Marcos de Arica</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="J9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K9" t="n">
-        <v>13</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
       <c r="N9" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="O9" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="P9" t="n">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="T9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U9" t="n">
         <v>10</v>
-      </c>
-      <c r="U9" t="n">
-        <v>12</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X9" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB9" t="n">
         <v>17</v>
       </c>
-      <c r="Y9" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11</v>
-      </c>
       <c r="AC9" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AD9" t="n">
-        <v>126</v>
+        <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jVp1RQDr</t>
+          <t>praYAeGd</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1604,119 +1604,119 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
+        <v>7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>10</v>
+      </c>
+      <c r="W10" t="n">
         <v>21</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M10" t="n">
+      <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA10" t="n">
         <v>6</v>
       </c>
-      <c r="N10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="AB10" t="n">
         <v>19</v>
       </c>
-      <c r="U10" t="n">
-        <v>26</v>
-      </c>
-      <c r="V10" t="n">
+      <c r="AC10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG10" t="n">
         <v>13</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AH10" t="n">
         <v>41</v>
       </c>
-      <c r="X10" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC10" t="n">
+      <c r="AI10" t="n">
         <v>34</v>
       </c>
-      <c r="AD10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bel9P4re</t>
+          <t>KbSP4c0E</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1726,119 +1726,115 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Cucuta</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.48</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
-        <v>4.75</v>
+        <v>2.92</v>
       </c>
       <c r="I11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17</v>
-      </c>
+        <v>1.83</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="N11" t="n">
-        <v>1.57</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.35</v>
       </c>
-      <c r="P11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3.5</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="U11" t="n">
+        <v>32</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15</v>
+      </c>
+      <c r="W11" t="n">
+        <v>110</v>
+      </c>
+      <c r="X11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z11" t="n">
         <v>8</v>
       </c>
-      <c r="V11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>17</v>
-      </c>
       <c r="AA11" t="n">
-        <v>9.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AD11" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>6.6</v>
       </c>
       <c r="AF11" t="n">
-        <v>34</v>
+        <v>8.75</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>7.8</v>
       </c>
       <c r="AH11" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>14.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>v5dHNrD7</t>
+          <t>MFUlRejA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1848,119 +1844,119 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>FRANCE - LIGUE 2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Caen</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12" t="n">
+        <v>13</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U12" t="n">
+        <v>7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W12" t="n">
+        <v>10</v>
+      </c>
+      <c r="X12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE12" t="n">
         <v>17</v>
       </c>
-      <c r="L12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T12" t="n">
-        <v>13</v>
-      </c>
-      <c r="U12" t="n">
-        <v>17</v>
-      </c>
-      <c r="V12" t="n">
-        <v>11</v>
-      </c>
-      <c r="W12" t="n">
-        <v>29</v>
-      </c>
-      <c r="X12" t="n">
+      <c r="AF12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG12" t="n">
         <v>19</v>
       </c>
-      <c r="Y12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>10</v>
-      </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jL3He6Mi</t>
+          <t>fFRZu5Xj</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1970,32 +1966,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aalesund</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2022,67 +2018,67 @@
         <v>3.25</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="V13" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC13" t="n">
         <v>41</v>
       </c>
       <c r="AD13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AH13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI13" t="n">
         <v>23</v>
       </c>
-      <c r="AI13" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>QJBVyCVI</t>
+          <t>jVp1RQDr</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2092,119 +2088,119 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Egersund</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.62</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>4.33</v>
+        <v>1.8</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="O14" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="T14" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="U14" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="V14" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z14" t="n">
         <v>21</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>8.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH14" t="n">
         <v>17</v>
       </c>
-      <c r="AF14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>51</v>
-      </c>
       <c r="AI14" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tSgIaFNP</t>
+          <t>bel9P4re</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2214,119 +2210,119 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
       </c>
       <c r="K15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="P15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
         <v>9</v>
       </c>
       <c r="U15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
         <v>41</v>
       </c>
       <c r="AD15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH15" t="n">
         <v>51</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xbulfgom</t>
+          <t>v5dHNrD7</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2336,119 +2332,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K16" t="n">
+        <v>17</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T16" t="n">
         <v>13</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
+        <v>17</v>
+      </c>
+      <c r="V16" t="n">
+        <v>11</v>
+      </c>
+      <c r="W16" t="n">
+        <v>29</v>
+      </c>
+      <c r="X16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
         <v>7.5</v>
       </c>
-      <c r="U16" t="n">
-        <v>8</v>
-      </c>
-      <c r="V16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>12</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
         <v>23</v>
       </c>
-      <c r="Z16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AI16" t="n">
         <v>17</v>
       </c>
-      <c r="AC16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>d0ekhXFa</t>
+          <t>jL3He6Mi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2468,52 +2464,52 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Aalesund</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lyn</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.62</v>
       </c>
-      <c r="O17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T17" t="n">
         <v>11</v>
@@ -2522,22 +2518,22 @@
         <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W17" t="n">
+        <v>29</v>
+      </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y17" t="n">
         <v>26</v>
       </c>
-      <c r="X17" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>23</v>
-      </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB17" t="n">
         <v>12</v>
@@ -2546,19 +2542,19 @@
         <v>41</v>
       </c>
       <c r="AD17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -2570,7 +2566,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4QbcjBpC</t>
+          <t>QJBVyCVI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2590,22 +2586,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stabaek</t>
+          <t>Egersund</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Hodd</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
         <v>1.03</v>
@@ -2620,10 +2616,10 @@
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P18" t="n">
         <v>1.29</v>
@@ -2632,25 +2628,25 @@
         <v>3.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U18" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>21</v>
@@ -2659,40 +2655,40 @@
         <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI18" t="n">
         <v>34</v>
       </c>
-      <c r="AD18" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OEBVX2Up</t>
+          <t>tSgIaFNP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2712,22 +2708,22 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Start</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Sogndal</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
@@ -2754,25 +2750,25 @@
         <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W19" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
@@ -2781,7 +2777,7 @@
         <v>15</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
@@ -2790,31 +2786,31 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dKZmoefA</t>
+          <t>xbulfgom</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2829,81 +2825,81 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rakow</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.5</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="I20" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.8</v>
       </c>
-      <c r="J20" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K20" t="n">
-        <v>9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.95</v>
-      </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T20" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="U20" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="V20" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="W20" t="n">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="X20" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AB20" t="n">
         <v>17</v>
@@ -2912,31 +2908,31 @@
         <v>51</v>
       </c>
       <c r="AD20" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AE20" t="n">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ALbixpUp</t>
+          <t>d0ekhXFa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2951,63 +2947,63 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tychy</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Lyn</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
+        <v>15</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T21" t="n">
         <v>11</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T21" t="n">
-        <v>9</v>
-      </c>
       <c r="U21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V21" t="n">
         <v>10</v>
@@ -3016,49 +3012,49 @@
         <v>26</v>
       </c>
       <c r="X21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AE21" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
         <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vV7K3EC7</t>
+          <t>4QbcjBpC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3073,99 +3069,99 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Hodd</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="O22" t="n">
-        <v>1.67</v>
+        <v>2.4</v>
       </c>
       <c r="P22" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X22" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE22" t="n">
         <v>15</v>
       </c>
-      <c r="AC22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
@@ -3174,13 +3170,13 @@
         <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WOf6RH4E</t>
+          <t>OEBVX2Up</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3190,119 +3186,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mafra</t>
+          <t>Start</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Sogndal</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>1.91</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="I23" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>2.63</v>
+        <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2.4</v>
+        <v>1.62</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>2.25</v>
       </c>
       <c r="P23" t="n">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>3.4</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="T23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" t="n">
+        <v>9</v>
+      </c>
+      <c r="W23" t="n">
+        <v>17</v>
+      </c>
+      <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
         <v>7.5</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AB23" t="n">
         <v>13</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AC23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG23" t="n">
         <v>12</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AH23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>29</v>
-      </c>
-      <c r="X23" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kbv3izQ6</t>
+          <t>dKZmoefA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3312,119 +3308,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gloria Buzau</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H24" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S24" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="U24" t="n">
+        <v>21</v>
+      </c>
+      <c r="V24" t="n">
         <v>15</v>
       </c>
-      <c r="V24" t="n">
-        <v>13</v>
-      </c>
       <c r="W24" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="X24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
       </c>
       <c r="Z24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA24" t="n">
-        <v>6</v>
-      </c>
       <c r="AB24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="AE24" t="n">
         <v>6.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG24" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>YPQDyQa6</t>
+          <t>ALbixpUp</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3434,119 +3430,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>U. Cluj</t>
+          <t>Tychy</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.1</v>
       </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
       <c r="I25" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="M25" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="P25" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="R25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S25" t="n">
         <v>2.1</v>
       </c>
-      <c r="S25" t="n">
-        <v>1.67</v>
-      </c>
       <c r="T25" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y25" t="n">
         <v>29</v>
       </c>
-      <c r="Y25" t="n">
-        <v>41</v>
-      </c>
       <c r="Z25" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AC25" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="n">
-        <v>900</v>
+        <v>201</v>
       </c>
       <c r="AE25" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI25" t="n">
         <v>21</v>
       </c>
-      <c r="AI25" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ25" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8EJ9Xz56</t>
+          <t>vV7K3EC7</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3556,119 +3552,119 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="M26" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P26" t="n">
         <v>1.44</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q26" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="S26" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="U26" t="n">
+        <v>10</v>
+      </c>
+      <c r="V26" t="n">
         <v>9.5</v>
       </c>
-      <c r="V26" t="n">
-        <v>10</v>
-      </c>
       <c r="W26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X26" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="Z26" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AA26" t="n">
         <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AD26" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AF26" t="n">
         <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>41</v>
       </c>
       <c r="AI26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>41</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>xjsTqjuf</t>
+          <t>WOf6RH4E</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3678,119 +3674,119 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Varnamo</t>
+          <t>Mafra</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sirius</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.35</v>
+        <v>2.88</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>13</v>
+      </c>
+      <c r="V27" t="n">
+        <v>12</v>
+      </c>
+      <c r="W27" t="n">
+        <v>29</v>
+      </c>
+      <c r="X27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF27" t="n">
         <v>11</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T27" t="n">
-        <v>8</v>
-      </c>
-      <c r="U27" t="n">
-        <v>11</v>
-      </c>
-      <c r="V27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W27" t="n">
-        <v>23</v>
-      </c>
-      <c r="X27" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>13</v>
       </c>
       <c r="AG27" t="n">
         <v>11</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OnHgVjQ0</t>
+          <t>Kbv3izQ6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3800,110 +3796,110 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>GAIS</t>
+          <t>Gloria Buzau</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>AIK</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K28" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N28" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="O28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.57</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q28" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S28" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U28" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="X28" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="n">
         <v>67</v>
       </c>
       <c r="AD28" t="n">
-        <v>451</v>
+        <v>101</v>
       </c>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
         <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ28" t="n">
         <v>41</v>
@@ -3912,7 +3908,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8nLwHSuS</t>
+          <t>YPQDyQa6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3922,110 +3918,110 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oddevold</t>
+          <t>U. Cluj</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Umea FC</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="O29" t="n">
-        <v>2.03</v>
+        <v>1.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="S29" t="n">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="T29" t="n">
         <v>7.5</v>
       </c>
       <c r="U29" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V29" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD29" t="n">
-        <v>251</v>
+        <v>900</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ29" t="n">
         <v>41</v>
@@ -4034,7 +4030,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>0WnwlnEL</t>
+          <t>8EJ9Xz56</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4044,119 +4040,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bellinzona</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>3.7</v>
       </c>
       <c r="J30" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="K30" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="M30" t="n">
-        <v>3.05</v>
+        <v>2.38</v>
       </c>
       <c r="N30" t="n">
-        <v>1.98</v>
+        <v>2.7</v>
       </c>
       <c r="O30" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="T30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U30" t="n">
         <v>9.5</v>
       </c>
-      <c r="U30" t="n">
-        <v>16.5</v>
-      </c>
       <c r="V30" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AD30" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AE30" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hURHt46e</t>
+          <t>xjsTqjuf</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4166,119 +4162,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Varnamo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Sirius</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.78</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>4.05</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
       </c>
       <c r="K31" t="n">
+        <v>11</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T31" t="n">
         <v>8</v>
       </c>
-      <c r="L31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O31" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T31" t="n">
-        <v>8.25</v>
-      </c>
       <c r="U31" t="n">
+        <v>11</v>
+      </c>
+      <c r="V31" t="n">
         <v>9.5</v>
       </c>
-      <c r="V31" t="n">
-        <v>8</v>
-      </c>
       <c r="W31" t="n">
+        <v>23</v>
+      </c>
+      <c r="X31" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB31" t="n">
         <v>15</v>
       </c>
-      <c r="X31" t="n">
+      <c r="AC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF31" t="n">
         <v>13</v>
       </c>
-      <c r="Y31" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>350</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>24</v>
-      </c>
       <c r="AG31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AJ31" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KGT9rQyq</t>
+          <t>OnHgVjQ0</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4288,119 +4284,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Etoile-Carouge</t>
+          <t>GAIS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>AIK</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.72</v>
+        <v>2.55</v>
       </c>
       <c r="H32" t="n">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="J32" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>3.85</v>
+        <v>2.63</v>
       </c>
       <c r="N32" t="n">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="O32" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="P32" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="R32" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="T32" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="U32" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="V32" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="W32" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="X32" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AD32" t="n">
-        <v>400</v>
+        <v>451</v>
       </c>
       <c r="AE32" t="n">
-        <v>13.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AG32" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AJ32" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ldLQvry8</t>
+          <t>8nLwHSuS</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4410,119 +4406,119 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Oddevold</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Umea FC</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>2.07</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K33" t="n">
-        <v>7.7</v>
+        <v>13</v>
       </c>
       <c r="L33" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O33" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S33" t="n">
         <v>1.95</v>
       </c>
-      <c r="P33" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.12</v>
-      </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="U33" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="V33" t="n">
-        <v>11.25</v>
+        <v>8.5</v>
       </c>
       <c r="W33" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="X33" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Z33" t="n">
-        <v>7.7</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AC33" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="AE33" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="n">
-        <v>15.5</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>QHWnkb9C</t>
+          <t>0WnwlnEL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4532,119 +4528,119 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Bellinzona</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>9</v>
+        <v>6.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="N34" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="P34" t="n">
         <v>1.44</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="T34" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U34" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="V34" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W34" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="X34" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Y34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="AA34" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC34" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AD34" t="n">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH34" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0WUQmSkJ</t>
+          <t>hURHt46e</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4654,234 +4650,722 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>CA Cerro</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.7</v>
+        <v>1.78</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>3.65</v>
       </c>
       <c r="I35" t="n">
-        <v>2.7</v>
+        <v>4.05</v>
       </c>
       <c r="J35" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="M35" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>2.88</v>
+        <v>1.7</v>
       </c>
       <c r="O35" t="n">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="P35" t="n">
-        <v>1.62</v>
+        <v>1.35</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="R35" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>1.57</v>
+        <v>2.12</v>
       </c>
       <c r="T35" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="V35" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="X35" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AA35" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AD35" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AE35" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AG35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AJ35" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>KGT9rQyq</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Etoile-Carouge</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I36" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ldLQvry8</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Thun</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T37" t="n">
+        <v>11</v>
+      </c>
+      <c r="U37" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W37" t="n">
+        <v>45</v>
+      </c>
+      <c r="X37" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>QHWnkb9C</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U38" t="n">
+        <v>13</v>
+      </c>
+      <c r="V38" t="n">
+        <v>11</v>
+      </c>
+      <c r="W38" t="n">
+        <v>29</v>
+      </c>
+      <c r="X38" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>301</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>0WUQmSkJ</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>CA Cerro</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Wanderers</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>12</v>
+      </c>
+      <c r="V39" t="n">
+        <v>12</v>
+      </c>
+      <c r="W39" t="n">
+        <v>29</v>
+      </c>
+      <c r="X39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>6XyIklL6</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>31/03/2025</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>21:15</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>Defensor Sp.</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Miramar</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G40" t="n">
         <v>1.83</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>4.75</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J40" t="n">
         <v>1.1</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K40" t="n">
         <v>7</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>1.44</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M40" t="n">
         <v>2.63</v>
       </c>
-      <c r="N36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O36" t="n">
+      <c r="N40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P40" t="n">
         <v>1.53</v>
       </c>
-      <c r="P36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="Q40" t="n">
         <v>2.38</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R40" t="n">
         <v>2.2</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S40" t="n">
         <v>1.62</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T40" t="n">
         <v>5.5</v>
       </c>
-      <c r="U36" t="n">
+      <c r="U40" t="n">
         <v>7.5</v>
       </c>
-      <c r="V36" t="n">
+      <c r="V40" t="n">
         <v>9.5</v>
       </c>
-      <c r="W36" t="n">
+      <c r="W40" t="n">
         <v>15</v>
       </c>
-      <c r="X36" t="n">
+      <c r="X40" t="n">
         <v>17</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Y40" t="n">
         <v>41</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="Z40" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AA40" t="n">
         <v>6</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AB40" t="n">
         <v>19</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AC40" t="n">
         <v>67</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AD40" t="n">
         <v>351</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AE40" t="n">
         <v>11</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AF40" t="n">
         <v>23</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AG40" t="n">
         <v>17</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AH40" t="n">
         <v>51</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AI40" t="n">
         <v>41</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AJ40" t="n">
         <v>51</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -656,16 +656,16 @@
         <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N2" t="n">
         <v>2.2</v>
@@ -775,7 +775,7 @@
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>1.06</v>
@@ -796,10 +796,10 @@
         <v>1.84</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R3" t="n">
         <v>1.91</v>
@@ -808,10 +808,10 @@
         <v>1.91</v>
       </c>
       <c r="T3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -823,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>9.5</v>
@@ -912,10 +912,10 @@
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O4" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>7.5</v>
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -969,7 +969,7 @@
         <v>29</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
         <v>67</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>1.17</v>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
@@ -1064,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1156,10 +1156,10 @@
         <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1257,25 +1257,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K7" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="N7" t="n">
         <v>2.15</v>
@@ -1287,7 +1287,7 @@
         <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
         <v>1.91</v>
@@ -1296,31 +1296,31 @@
         <v>1.8</v>
       </c>
       <c r="T7" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="U7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="V7" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W7" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="X7" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y7" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Z7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA7" t="n">
         <v>6.7</v>
       </c>
-      <c r="AA7" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
         <v>100</v>
@@ -1329,22 +1329,22 @@
         <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1501,94 +1501,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J9" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N9" t="n">
-        <v>2.05</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="R9" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V9" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="W9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.3</v>
+        <v>6.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AD9" t="n">
         <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
         <v>50</v>
       </c>
       <c r="AI9" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1632,16 +1632,16 @@
         <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="N10" t="n">
         <v>2.4</v>
@@ -1745,87 +1745,87 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>4.65</v>
       </c>
       <c r="H11" t="n">
         <v>2.92</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="N11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R11" t="n">
         <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="U11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="W11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Y11" t="n">
         <v>45</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA11" t="n">
         <v>5.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD11" t="n">
         <v>450</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
         <v>7.8</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
         <v>24</v>
@@ -1863,25 +1863,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
         <v>1.7</v>
@@ -1896,13 +1896,13 @@
         <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
         <v>7</v>
@@ -1911,7 +1911,7 @@
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -1935,22 +1935,22 @@
         <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
@@ -2152,7 +2152,7 @@
         <v>26</v>
       </c>
       <c r="V14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
         <v>41</v>
@@ -2167,16 +2167,16 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
@@ -2194,7 +2194,7 @@
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2268,7 +2268,7 @@
         <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U15" t="n">
         <v>8</v>
@@ -2295,7 +2295,7 @@
         <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD15" t="n">
         <v>201</v>
@@ -2310,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="AH15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI15" t="n">
         <v>41</v>
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2411,7 +2411,7 @@
         <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2432,7 +2432,7 @@
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI16" t="n">
         <v>17</v>
@@ -2476,37 +2476,37 @@
         <v>2.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O17" t="n">
         <v>2.05</v>
       </c>
       <c r="P17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S17" t="n">
         <v>2.2</v>
@@ -2518,7 +2518,7 @@
         <v>15</v>
       </c>
       <c r="V17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W17" t="n">
         <v>29</v>
@@ -2530,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2551,7 +2551,7 @@
         <v>13</v>
       </c>
       <c r="AG17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
         <v>23</v>
@@ -2560,7 +2560,7 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -2595,7 +2595,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
@@ -2604,19 +2604,19 @@
         <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K18" t="n">
         <v>17</v>
       </c>
       <c r="L18" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="O18" t="n">
         <v>2.35</v>
@@ -2628,7 +2628,7 @@
         <v>3.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S18" t="n">
         <v>2.2</v>
@@ -2720,28 +2720,28 @@
         <v>1.65</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
         <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M19" t="n">
         <v>4.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O19" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P19" t="n">
         <v>1.3</v>
@@ -2750,7 +2750,7 @@
         <v>3.4</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S19" t="n">
         <v>2.2</v>
@@ -2768,7 +2768,7 @@
         <v>13</v>
       </c>
       <c r="X19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
@@ -2780,7 +2780,7 @@
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
@@ -2789,7 +2789,7 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF19" t="n">
         <v>26</v>
@@ -2842,25 +2842,25 @@
         <v>1.57</v>
       </c>
       <c r="H20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K20" t="n">
         <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O20" t="n">
         <v>2.05</v>
@@ -2875,7 +2875,7 @@
         <v>1.8</v>
       </c>
       <c r="S20" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
         <v>7.5</v>
@@ -2961,10 +2961,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I21" t="n">
         <v>2.5</v>
@@ -3083,13 +3083,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
         <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -3116,13 +3116,13 @@
         <v>3.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U22" t="n">
         <v>11</v>
@@ -3131,13 +3131,13 @@
         <v>8.5</v>
       </c>
       <c r="W22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
         <v>17</v>
@@ -3152,16 +3152,16 @@
         <v>34</v>
       </c>
       <c r="AD22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>23</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
         <v>41</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H23" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3220,16 +3220,16 @@
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="P23" t="n">
         <v>1.3</v>
@@ -3274,7 +3274,7 @@
         <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE23" t="n">
         <v>13</v>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
@@ -3366,7 +3366,7 @@
         <v>1.8</v>
       </c>
       <c r="T24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U24" t="n">
         <v>21</v>
@@ -3375,10 +3375,10 @@
         <v>15</v>
       </c>
       <c r="W24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
@@ -3402,16 +3402,16 @@
         <v>6.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>29</v>
@@ -3937,13 +3937,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J29" t="n">
         <v>1.1</v>
@@ -3952,16 +3952,16 @@
         <v>7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N29" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O29" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P29" t="n">
         <v>1.57</v>
@@ -3976,19 +3976,19 @@
         <v>1.67</v>
       </c>
       <c r="T29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
         <v>15</v>
       </c>
       <c r="V29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
+        <v>41</v>
+      </c>
+      <c r="X29" t="n">
         <v>34</v>
-      </c>
-      <c r="X29" t="n">
-        <v>29</v>
       </c>
       <c r="Y29" t="n">
         <v>41</v>
@@ -4012,7 +4012,7 @@
         <v>6</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG29" t="n">
         <v>10</v>
@@ -4021,7 +4021,7 @@
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>41</v>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
         <v>1.13</v>
@@ -4074,16 +4074,16 @@
         <v>6</v>
       </c>
       <c r="L30" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N30" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P30" t="n">
         <v>1.62</v>
@@ -4092,10 +4092,10 @@
         <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T30" t="n">
         <v>5.5</v>
@@ -4104,7 +4104,7 @@
         <v>9.5</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
         <v>21</v>
@@ -4116,7 +4116,7 @@
         <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AA30" t="n">
         <v>6</v>
@@ -4131,10 +4131,10 @@
         <v>351</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
@@ -4143,7 +4143,7 @@
         <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ30" t="n">
         <v>51</v>
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4229,7 +4229,7 @@
         <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X31" t="n">
         <v>19</v>
@@ -4256,13 +4256,13 @@
         <v>9</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>11</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="n">
         <v>23</v>
@@ -4303,13 +4303,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J32" t="n">
         <v>1.08</v>
@@ -4351,13 +4351,13 @@
         <v>10</v>
       </c>
       <c r="W32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X32" t="n">
         <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z32" t="n">
         <v>7.5</v>
@@ -4446,10 +4446,10 @@
         <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O33" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4547,37 +4547,37 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="J34" t="n">
         <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L34" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M34" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N34" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="P34" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="R34" t="n">
         <v>1.75</v>
@@ -4586,28 +4586,28 @@
         <v>1.95</v>
       </c>
       <c r="T34" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="V34" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="W34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X34" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Y34" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB34" t="n">
         <v>14</v>
@@ -4619,22 +4619,22 @@
         <v>500</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG34" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH34" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35">
@@ -4794,22 +4794,22 @@
         <v>1.72</v>
       </c>
       <c r="H36" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I36" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L36" t="n">
         <v>1.22</v>
       </c>
       <c r="M36" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="N36" t="n">
         <v>1.65</v>
@@ -4818,28 +4818,28 @@
         <v>2.1</v>
       </c>
       <c r="P36" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
         <v>8.25</v>
       </c>
       <c r="U36" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V36" t="n">
         <v>8.25</v>
       </c>
       <c r="W36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
@@ -4848,31 +4848,31 @@
         <v>22</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD36" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AE36" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF36" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG36" t="n">
         <v>13.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI36" t="n">
         <v>35</v>
@@ -4913,25 +4913,25 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="L37" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N37" t="n">
         <v>1.75</v>
@@ -4940,55 +4940,55 @@
         <v>1.95</v>
       </c>
       <c r="P37" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S37" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="T37" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="U37" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="V37" t="n">
         <v>11.25</v>
       </c>
       <c r="W37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="X37" t="n">
         <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AB37" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC37" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD37" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AG37" t="n">
         <v>8.5</v>
@@ -4997,7 +4997,7 @@
         <v>20</v>
       </c>
       <c r="AI37" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AJ37" t="n">
         <v>23</v>
@@ -5035,13 +5035,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J38" t="n">
         <v>1.07</v>
@@ -5160,16 +5160,16 @@
         <v>2.7</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I39" t="n">
         <v>2.7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
         <v>1.57</v>
@@ -5184,10 +5184,10 @@
         <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R39" t="n">
         <v>2.25</v>
@@ -5196,7 +5196,7 @@
         <v>1.57</v>
       </c>
       <c r="T39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U39" t="n">
         <v>12</v>
@@ -5229,7 +5229,7 @@
         <v>101</v>
       </c>
       <c r="AE39" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF39" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -647,25 +647,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>2.2</v>
@@ -689,10 +689,10 @@
         <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W2" t="n">
         <v>26</v>
@@ -707,7 +707,7 @@
         <v>8</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -719,7 +719,7 @@
         <v>301</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -772,46 +772,46 @@
         <v>1.83</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="P3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
@@ -820,31 +820,31 @@
         <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC3" t="n">
         <v>51</v>
       </c>
       <c r="AD3" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
         <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -906,16 +906,16 @@
         <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
         <v>1.36</v>
@@ -924,10 +924,10 @@
         <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
         <v>7</v>
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>7.5</v>
@@ -960,7 +960,7 @@
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -972,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1052,7 +1052,7 @@
         <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U5" t="n">
         <v>10</v>
@@ -1064,13 +1064,13 @@
         <v>26</v>
       </c>
       <c r="X5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1528,10 +1528,10 @@
         <v>1.52</v>
       </c>
       <c r="P9" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R9" t="n">
         <v>2.1</v>
@@ -1540,7 +1540,7 @@
         <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U9" t="n">
         <v>9.5</v>
@@ -1549,7 +1549,7 @@
         <v>10.25</v>
       </c>
       <c r="W9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
@@ -1573,10 +1573,10 @@
         <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
         <v>13.5</v>
@@ -1588,7 +1588,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1623,25 +1623,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="N10" t="n">
         <v>2.4</v>
@@ -1662,19 +1662,19 @@
         <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
@@ -1686,7 +1686,7 @@
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
         <v>67</v>
@@ -1695,19 +1695,19 @@
         <v>1250</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1745,90 +1745,90 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.65</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="I11" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="U11" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V11" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="W11" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="X11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
         <v>55</v>
       </c>
       <c r="AD11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
         <v>1.03</v>
@@ -1878,61 +1878,61 @@
         <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N12" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="O12" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.91</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
@@ -1944,13 +1944,13 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -2006,10 +2006,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2107,19 +2107,19 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
-      <c r="H14" t="n">
-        <v>3.9</v>
-      </c>
       <c r="I14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
       </c>
       <c r="K14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L14" t="n">
         <v>1.13</v>
@@ -2158,7 +2158,7 @@
         <v>41</v>
       </c>
       <c r="X14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>26</v>
@@ -2167,10 +2167,10 @@
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>29</v>
@@ -2191,7 +2191,7 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>17</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2250,10 +2250,10 @@
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O15" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P15" t="n">
         <v>1.29</v>
@@ -2277,7 +2277,7 @@
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>11</v>
@@ -2289,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>51</v>
@@ -2307,7 +2307,7 @@
         <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>67</v>
@@ -2351,13 +2351,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
         <v>1.03</v>
@@ -2393,13 +2393,13 @@
         <v>13</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -2482,19 +2482,19 @@
         <v>2.45</v>
       </c>
       <c r="J17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O17" t="n">
         <v>2.05</v>
@@ -2506,7 +2506,7 @@
         <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S17" t="n">
         <v>2.2</v>
@@ -2595,31 +2595,31 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H18" t="n">
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K18" t="n">
         <v>17</v>
       </c>
       <c r="L18" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="O18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="P18" t="n">
         <v>1.29</v>
@@ -2628,7 +2628,7 @@
         <v>3.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
         <v>2.2</v>
@@ -2637,7 +2637,7 @@
         <v>9.5</v>
       </c>
       <c r="U18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V18" t="n">
         <v>8.5</v>
@@ -2717,49 +2717,49 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I19" t="n">
         <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L19" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
         <v>1.57</v>
       </c>
       <c r="O19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V19" t="n">
         <v>8.5</v>
@@ -2774,13 +2774,13 @@
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA19" t="n">
         <v>8</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
@@ -2792,7 +2792,7 @@
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
@@ -2848,22 +2848,22 @@
         <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K20" t="n">
         <v>13</v>
       </c>
       <c r="L20" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="O20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P20" t="n">
         <v>1.33</v>
@@ -2872,10 +2872,10 @@
         <v>3.25</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T20" t="n">
         <v>7.5</v>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H21" t="n">
         <v>3.7</v>
@@ -3098,10 +3098,10 @@
         <v>17</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N22" t="n">
         <v>1.53</v>
@@ -3220,16 +3220,16 @@
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P23" t="n">
         <v>1.3</v>
@@ -3449,31 +3449,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P25" t="n">
         <v>1.4</v>
@@ -3488,7 +3488,7 @@
         <v>2.1</v>
       </c>
       <c r="T25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U25" t="n">
         <v>13</v>
@@ -3512,25 +3512,25 @@
         <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC25" t="n">
         <v>41</v>
       </c>
       <c r="AD25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE25" t="n">
         <v>9.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -3571,13 +3571,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>1.07</v>
@@ -3619,13 +3619,13 @@
         <v>9.5</v>
       </c>
       <c r="W26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X26" t="n">
         <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z26" t="n">
         <v>8.5</v>
@@ -3643,16 +3643,16 @@
         <v>301</v>
       </c>
       <c r="AE26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
         <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI26" t="n">
         <v>29</v>
@@ -3815,13 +3815,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H28" t="n">
         <v>2.88</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J28" t="n">
         <v>1.11</v>
@@ -3854,7 +3854,7 @@
         <v>1.67</v>
       </c>
       <c r="T28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U28" t="n">
         <v>15</v>
@@ -3863,16 +3863,16 @@
         <v>13</v>
       </c>
       <c r="W28" t="n">
+        <v>41</v>
+      </c>
+      <c r="X28" t="n">
         <v>34</v>
-      </c>
-      <c r="X28" t="n">
-        <v>29</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
       </c>
       <c r="Z28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA28" t="n">
         <v>6</v>
@@ -3887,16 +3887,16 @@
         <v>101</v>
       </c>
       <c r="AE28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
         <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>23</v>
@@ -3940,43 +3940,43 @@
         <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N29" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="O29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P29" t="n">
         <v>1.53</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T29" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U29" t="n">
         <v>15</v>
@@ -3985,22 +3985,22 @@
         <v>13</v>
       </c>
       <c r="W29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="X29" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
         <v>41</v>
       </c>
       <c r="Z29" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA29" t="n">
         <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>67</v>
@@ -4009,13 +4009,13 @@
         <v>900</v>
       </c>
       <c r="AE29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF29" t="n">
         <v>9.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4024,7 +4024,7 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -4181,13 +4181,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4202,16 +4202,16 @@
         <v>3.4</v>
       </c>
       <c r="N31" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="O31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R31" t="n">
         <v>1.8</v>
@@ -4220,19 +4220,19 @@
         <v>1.95</v>
       </c>
       <c r="T31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
@@ -4241,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4250,22 +4250,22 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4425,13 +4425,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H33" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
@@ -4446,10 +4446,10 @@
         <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4479,13 +4479,13 @@
         <v>13</v>
       </c>
       <c r="Y33" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z33" t="n">
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
@@ -4497,13 +4497,13 @@
         <v>251</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
@@ -4913,22 +4913,22 @@
         </is>
       </c>
       <c r="G37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H37" t="n">
         <v>3.45</v>
       </c>
-      <c r="H37" t="n">
-        <v>3.2</v>
-      </c>
       <c r="I37" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
       </c>
       <c r="K37" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M37" t="n">
         <v>3.55</v>
@@ -4946,49 +4946,49 @@
         <v>2.82</v>
       </c>
       <c r="R37" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="T37" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="U37" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="V37" t="n">
         <v>11.25</v>
       </c>
       <c r="W37" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="X37" t="n">
         <v>27</v>
       </c>
       <c r="Y37" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB37" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AD37" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF37" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG37" t="n">
         <v>8.5</v>
@@ -4997,7 +4997,7 @@
         <v>20</v>
       </c>
       <c r="AI37" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ37" t="n">
         <v>23</v>
@@ -5056,10 +5056,10 @@
         <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P38" t="n">
         <v>1.44</v>
@@ -5279,52 +5279,52 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I40" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q40" t="n">
         <v>2.5</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>2.38</v>
-      </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="T40" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W40" t="n">
         <v>15</v>
@@ -5333,16 +5333,16 @@
         <v>17</v>
       </c>
       <c r="Y40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA40" t="n">
         <v>6</v>
       </c>
       <c r="AB40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC40" t="n">
         <v>67</v>
@@ -5351,13 +5351,13 @@
         <v>351</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
@@ -695,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X2" t="n">
         <v>23</v>
@@ -722,13 +722,13 @@
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
         <v>4.75</v>
@@ -781,19 +781,19 @@
         <v>1.07</v>
       </c>
       <c r="K3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P3" t="n">
         <v>1.44</v>
@@ -802,31 +802,31 @@
         <v>2.63</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V3" t="n">
         <v>8.5</v>
       </c>
       <c r="W3" t="n">
+        <v>13</v>
+      </c>
+      <c r="X3" t="n">
         <v>15</v>
-      </c>
-      <c r="X3" t="n">
-        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>29</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA3" t="n">
         <v>6.5</v>
@@ -835,19 +835,19 @@
         <v>17</v>
       </c>
       <c r="AC3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD3" t="n">
         <v>401</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -856,7 +856,7 @@
         <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>5.5</v>
@@ -912,16 +912,16 @@
         <v>3.75</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.95</v>
@@ -930,7 +930,7 @@
         <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
         <v>7.5</v>
@@ -939,7 +939,7 @@
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -963,10 +963,10 @@
         <v>301</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>4.05</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1394,13 +1394,13 @@
         <v>7.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
         <v>3.35</v>
       </c>
       <c r="N8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O8" t="n">
         <v>1.87</v>
@@ -1409,64 +1409,64 @@
         <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S8" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="U8" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="V8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>7.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH8" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AI8" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1501,13 +1501,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1516,10 +1516,10 @@
         <v>6.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="N9" t="n">
         <v>2.42</v>
@@ -1540,10 +1540,10 @@
         <v>1.65</v>
       </c>
       <c r="T9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V9" t="n">
         <v>10.25</v>
@@ -1552,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y9" t="n">
         <v>45</v>
@@ -1573,16 +1573,16 @@
         <v>900</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
@@ -1638,16 +1638,16 @@
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>1.53</v>
@@ -1863,10 +1863,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I12" t="n">
         <v>6.5</v>
@@ -1878,34 +1878,34 @@
         <v>15</v>
       </c>
       <c r="L12" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O12" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1914,34 +1914,34 @@
         <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>67</v>
@@ -1985,13 +1985,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="n">
         <v>1.04</v>
@@ -2000,16 +2000,16 @@
         <v>13</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P13" t="n">
         <v>1.33</v>
@@ -2027,13 +2027,13 @@
         <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V13" t="n">
         <v>9.5</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
         <v>17</v>
@@ -2042,7 +2042,7 @@
         <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>6.5</v>
@@ -2063,16 +2063,16 @@
         <v>17</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
         <v>4.2</v>
       </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
         <v>1.02</v>
@@ -2134,64 +2134,64 @@
         <v>2.7</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="X14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y14" t="n">
         <v>29</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>26</v>
       </c>
       <c r="Z14" t="n">
         <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="n">
         <v>12</v>
       </c>
       <c r="AF14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ14" t="n">
         <v>17</v>
@@ -2229,13 +2229,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I15" t="n">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="J15" t="n">
         <v>1.03</v>
@@ -2262,25 +2262,25 @@
         <v>3.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="T15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="U15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V15" t="n">
         <v>8.5</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
         <v>21</v>
@@ -2289,34 +2289,34 @@
         <v>17</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH15" t="n">
         <v>51</v>
       </c>
-      <c r="AD15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AI15" t="n">
         <v>34</v>
       </c>
-      <c r="AG15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2351,37 +2351,37 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.55</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="J16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N16" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="O16" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="R16" t="n">
         <v>1.44</v>
@@ -2390,28 +2390,28 @@
         <v>2.63</v>
       </c>
       <c r="T16" t="n">
+        <v>12</v>
+      </c>
+      <c r="U16" t="n">
+        <v>12</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9</v>
+      </c>
+      <c r="W16" t="n">
+        <v>19</v>
+      </c>
+      <c r="X16" t="n">
         <v>13</v>
       </c>
-      <c r="U16" t="n">
-        <v>15</v>
-      </c>
-      <c r="V16" t="n">
-        <v>10</v>
-      </c>
-      <c r="W16" t="n">
-        <v>26</v>
-      </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>19</v>
       </c>
-      <c r="Y16" t="n">
-        <v>21</v>
-      </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
@@ -2420,25 +2420,25 @@
         <v>29</v>
       </c>
       <c r="AD16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="n">
         <v>13</v>
       </c>
-      <c r="AF16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>10</v>
-      </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -2494,22 +2494,22 @@
         <v>4</v>
       </c>
       <c r="N17" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T17" t="n">
         <v>11</v>
@@ -2521,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="W17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X17" t="n">
         <v>21</v>
@@ -2530,7 +2530,7 @@
         <v>26</v>
       </c>
       <c r="Z17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
         <v>6.5</v>
@@ -2560,7 +2560,7 @@
         <v>19</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -2601,7 +2601,7 @@
         <v>4.2</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
         <v>1.03</v>
@@ -2616,25 +2616,25 @@
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O18" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U18" t="n">
         <v>9</v>
@@ -2652,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
         <v>8.5</v>
@@ -2717,37 +2717,37 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
         <v>1.03</v>
       </c>
       <c r="K19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O19" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P19" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R19" t="n">
         <v>1.62</v>
@@ -2756,7 +2756,7 @@
         <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U19" t="n">
         <v>9.5</v>
@@ -2765,16 +2765,16 @@
         <v>8.5</v>
       </c>
       <c r="W19" t="n">
+        <v>15</v>
+      </c>
+      <c r="X19" t="n">
         <v>13</v>
-      </c>
-      <c r="X19" t="n">
-        <v>12</v>
       </c>
       <c r="Y19" t="n">
         <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
         <v>8</v>
@@ -2789,16 +2789,16 @@
         <v>151</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
         <v>34</v>
@@ -2961,76 +2961,76 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="M21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R21" t="n">
         <v>1.62</v>
       </c>
-      <c r="O21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S21" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>41</v>
       </c>
       <c r="AD21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE21" t="n">
         <v>11</v>
@@ -3039,16 +3039,16 @@
         <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>26</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -3083,13 +3083,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J22" t="n">
         <v>1.03</v>
@@ -3116,16 +3116,16 @@
         <v>3.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T22" t="n">
         <v>11</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
         <v>8.5</v>
@@ -3134,7 +3134,7 @@
         <v>15</v>
       </c>
       <c r="X22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
         <v>19</v>
@@ -3143,7 +3143,7 @@
         <v>17</v>
       </c>
       <c r="AA22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB22" t="n">
         <v>12</v>
@@ -3158,7 +3158,7 @@
         <v>17</v>
       </c>
       <c r="AF22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG22" t="n">
         <v>15</v>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="J23" t="n">
         <v>1.03</v>
@@ -3220,16 +3220,16 @@
         <v>15</v>
       </c>
       <c r="L23" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O23" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P23" t="n">
         <v>1.3</v>
@@ -3247,16 +3247,16 @@
         <v>9.5</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W23" t="n">
         <v>17</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>21</v>
@@ -3283,7 +3283,7 @@
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH23" t="n">
         <v>41</v>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H24" t="n">
         <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
@@ -3378,7 +3378,7 @@
         <v>41</v>
       </c>
       <c r="X24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="n">
         <v>41</v>
@@ -3402,7 +3402,7 @@
         <v>6.5</v>
       </c>
       <c r="AF24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG24" t="n">
         <v>9</v>
@@ -3449,19 +3449,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L25" t="n">
         <v>1.25</v>
@@ -3488,7 +3488,7 @@
         <v>2.1</v>
       </c>
       <c r="T25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U25" t="n">
         <v>13</v>
@@ -3497,10 +3497,10 @@
         <v>10</v>
       </c>
       <c r="W25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
         <v>29</v>
@@ -3521,16 +3521,16 @@
         <v>151</v>
       </c>
       <c r="AE25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
         <v>21</v>
@@ -3571,19 +3571,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.36</v>
@@ -3610,19 +3610,19 @@
         <v>1.83</v>
       </c>
       <c r="T26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U26" t="n">
+        <v>11</v>
+      </c>
+      <c r="V26" t="n">
         <v>10</v>
       </c>
-      <c r="V26" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W26" t="n">
+        <v>23</v>
+      </c>
+      <c r="X26" t="n">
         <v>21</v>
-      </c>
-      <c r="X26" t="n">
-        <v>19</v>
       </c>
       <c r="Y26" t="n">
         <v>34</v>
@@ -3643,22 +3643,22 @@
         <v>301</v>
       </c>
       <c r="AE26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
         <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
         <v>34</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -3696,16 +3696,16 @@
         <v>2.88</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I27" t="n">
         <v>2.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -3714,16 +3714,16 @@
         <v>2.63</v>
       </c>
       <c r="N27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="n">
         <v>2</v>
@@ -3750,7 +3750,7 @@
         <v>41</v>
       </c>
       <c r="Z27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA27" t="n">
         <v>6</v>
@@ -3937,37 +3937,37 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K29" t="n">
+        <v>9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="n">
         <v>2.2</v>
       </c>
-      <c r="J29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.35</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
         <v>2</v>
@@ -3976,13 +3976,13 @@
         <v>1.73</v>
       </c>
       <c r="T29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U29" t="n">
         <v>15</v>
       </c>
       <c r="V29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="W29" t="n">
         <v>34</v>
@@ -4003,7 +4003,7 @@
         <v>17</v>
       </c>
       <c r="AC29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD29" t="n">
         <v>900</v>
@@ -4012,10 +4012,10 @@
         <v>6.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4062,7 +4062,7 @@
         <v>2.3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
         <v>3.6</v>
@@ -4104,7 +4104,7 @@
         <v>9.5</v>
       </c>
       <c r="V30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W30" t="n">
         <v>21</v>
@@ -4122,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC30" t="n">
         <v>81</v>
@@ -4143,7 +4143,7 @@
         <v>41</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="n">
         <v>51</v>
@@ -4181,19 +4181,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>1.3</v>
@@ -4202,16 +4202,16 @@
         <v>3.4</v>
       </c>
       <c r="N31" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="O31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P31" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R31" t="n">
         <v>1.8</v>
@@ -4229,10 +4229,10 @@
         <v>9</v>
       </c>
       <c r="W31" t="n">
+        <v>21</v>
+      </c>
+      <c r="X31" t="n">
         <v>19</v>
-      </c>
-      <c r="X31" t="n">
-        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
@@ -4241,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4250,22 +4250,22 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE31" t="n">
         <v>9.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
         <v>34</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4303,82 +4303,82 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
         <v>2.8</v>
       </c>
       <c r="J32" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O32" t="n">
         <v>1.44</v>
       </c>
-      <c r="M32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>1.57</v>
       </c>
-      <c r="P32" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Q32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S32" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="T32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U32" t="n">
         <v>11</v>
       </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA32" t="n">
         <v>6</v>
       </c>
       <c r="AB32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="n">
         <v>67</v>
       </c>
       <c r="AD32" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG32" t="n">
         <v>11</v>
@@ -4387,7 +4387,7 @@
         <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
         <v>41</v>
@@ -4425,13 +4425,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H33" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.04</v>
@@ -4446,10 +4446,10 @@
         <v>3.75</v>
       </c>
       <c r="N33" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
         <v>1.36</v>
@@ -4485,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="AA33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB33" t="n">
         <v>17</v>
@@ -4503,7 +4503,7 @@
         <v>26</v>
       </c>
       <c r="AG33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
@@ -4547,10 +4547,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I34" t="n">
         <v>2.12</v>
@@ -4559,37 +4559,37 @@
         <v>1.07</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L34" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M34" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N34" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P34" t="n">
         <v>1.39</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S34" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T34" t="n">
         <v>9.75</v>
       </c>
       <c r="U34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V34" t="n">
         <v>11.5</v>
@@ -4604,10 +4604,10 @@
         <v>37</v>
       </c>
       <c r="Z34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB34" t="n">
         <v>14</v>
@@ -4619,10 +4619,10 @@
         <v>500</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AF34" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG34" t="n">
         <v>8.75</v>
@@ -4631,10 +4631,10 @@
         <v>20</v>
       </c>
       <c r="AI34" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -4669,70 +4669,70 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>4.05</v>
+        <v>4.45</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="L35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M35" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="N35" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P35" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="R35" t="n">
         <v>1.65</v>
       </c>
       <c r="S35" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="T35" t="n">
         <v>8.25</v>
       </c>
       <c r="U35" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="V35" t="n">
         <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
         <v>22</v>
       </c>
       <c r="Z35" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC35" t="n">
         <v>55</v>
@@ -4741,22 +4741,22 @@
         <v>350</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI35" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ35" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -4794,91 +4794,91 @@
         <v>1.72</v>
       </c>
       <c r="H36" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="I36" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M36" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P36" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
         <v>1.65</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T36" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U36" t="n">
         <v>9</v>
       </c>
       <c r="V36" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="W36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X36" t="n">
         <v>12.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD36" t="n">
         <v>350</v>
       </c>
       <c r="AE36" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AG36" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -4913,37 +4913,37 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H37" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M37" t="n">
         <v>3.45</v>
       </c>
-      <c r="I37" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.55</v>
-      </c>
       <c r="N37" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="P37" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="R37" t="n">
         <v>1.65</v>
@@ -4952,16 +4952,16 @@
         <v>2.12</v>
       </c>
       <c r="T37" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="U37" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="V37" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="W37" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X37" t="n">
         <v>27</v>
@@ -4970,13 +4970,13 @@
         <v>32</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC37" t="n">
         <v>50</v>
@@ -4985,22 +4985,22 @@
         <v>350</v>
       </c>
       <c r="AE37" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG37" t="n">
         <v>8.5</v>
       </c>
       <c r="AH37" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI37" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ37" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38">
@@ -5035,19 +5035,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H38" t="n">
         <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J38" t="n">
         <v>1.07</v>
       </c>
       <c r="K38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L38" t="n">
         <v>1.36</v>
@@ -5074,7 +5074,7 @@
         <v>1.83</v>
       </c>
       <c r="T38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
         <v>13</v>
@@ -5107,7 +5107,7 @@
         <v>301</v>
       </c>
       <c r="AE38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF38" t="n">
         <v>12</v>
@@ -5116,7 +5116,7 @@
         <v>10</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI38" t="n">
         <v>21</v>
@@ -5279,37 +5279,37 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>1.08</v>
       </c>
       <c r="K40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="P40" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R40" t="n">
         <v>2</v>
@@ -5321,13 +5321,13 @@
         <v>6</v>
       </c>
       <c r="U40" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="V40" t="n">
         <v>9</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
         <v>17</v>
@@ -5336,28 +5336,28 @@
         <v>34</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA40" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
         <v>17</v>
       </c>
       <c r="AC40" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD40" t="n">
         <v>351</v>
       </c>
       <c r="AE40" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>1.4</v>
@@ -790,22 +790,22 @@
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T3" t="n">
         <v>6</v>
@@ -814,40 +814,40 @@
         <v>7.5</v>
       </c>
       <c r="V3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
         <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z3" t="n">
         <v>8</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>67</v>
       </c>
       <c r="AD3" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
         <v>51</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
@@ -933,13 +933,13 @@
         <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V4" t="n">
         <v>8.5</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>13</v>
@@ -954,25 +954,25 @@
         <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>51</v>
       </c>
       <c r="AD4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG4" t="n">
         <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
         <v>2.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J5" t="n">
         <v>1.17</v>
@@ -1052,10 +1052,10 @@
         <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
@@ -1088,7 +1088,7 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG5" t="n">
         <v>15</v>
@@ -1144,22 +1144,22 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P6" t="n">
         <v>1.5</v>
@@ -1257,28 +1257,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M7" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="N7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O7" t="n">
         <v>1.65</v>
@@ -1287,55 +1287,55 @@
         <v>1.45</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R7" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="U7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X7" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>19.5</v>
@@ -1501,94 +1501,94 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="L9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.47</v>
       </c>
-      <c r="M9" t="n">
+      <c r="Q9" t="n">
         <v>2.55</v>
       </c>
-      <c r="N9" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.45</v>
-      </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="U9" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V9" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W9" t="n">
         <v>22</v>
       </c>
       <c r="X9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AD9" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
         <v>45</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1623,13 +1623,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1650,10 +1650,10 @@
         <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
         <v>2.1</v>
@@ -1662,7 +1662,7 @@
         <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -1671,7 +1671,7 @@
         <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>23</v>
@@ -1680,13 +1680,13 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="n">
         <v>67</v>
@@ -1701,13 +1701,13 @@
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1745,90 +1745,90 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O11" t="n">
         <v>1.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.47</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="U11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V11" t="n">
         <v>13</v>
       </c>
       <c r="W11" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="n">
         <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD11" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -1863,13 +1863,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H12" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>1.03</v>
@@ -1884,28 +1884,28 @@
         <v>4.33</v>
       </c>
       <c r="N12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O12" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
+        <v>8</v>
+      </c>
+      <c r="U12" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U12" t="n">
-        <v>7</v>
       </c>
       <c r="V12" t="n">
         <v>8.5</v>
@@ -1917,22 +1917,22 @@
         <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
         <v>51</v>
       </c>
       <c r="AD12" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AE12" t="n">
         <v>17</v>
@@ -3702,10 +3702,10 @@
         <v>2.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -3714,10 +3714,10 @@
         <v>2.63</v>
       </c>
       <c r="N27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P27" t="n">
         <v>1.57</v>
@@ -3762,7 +3762,7 @@
         <v>67</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
@@ -5288,10 +5288,10 @@
         <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L40" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
         <v>1.17</v>
@@ -1028,22 +1028,22 @@
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R5" t="n">
         <v>2.63</v>
@@ -1052,10 +1052,10 @@
         <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
@@ -1070,16 +1070,16 @@
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AD5" t="n">
         <v>101</v>
@@ -1088,10 +1088,10 @@
         <v>6</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
         <v>41</v>
@@ -1141,31 +1141,31 @@
         <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="R6" t="n">
         <v>1.95</v>
@@ -1213,7 +1213,7 @@
         <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
@@ -1379,13 +1379,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
@@ -1394,79 +1394,79 @@
         <v>7.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="N8" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="P8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="U8" t="n">
         <v>10.25</v>
       </c>
       <c r="V8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
         <v>7.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AB8" t="n">
         <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="n">
         <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1501,37 +1501,37 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.3</v>
       </c>
-      <c r="I9" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K9" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="N9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
         <v>1.98</v>
@@ -1540,16 +1540,16 @@
         <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="V9" t="n">
         <v>10</v>
       </c>
       <c r="W9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X9" t="n">
         <v>22</v>
@@ -1558,13 +1558,13 @@
         <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC9" t="n">
         <v>110</v>
@@ -1573,19 +1573,19 @@
         <v>1250</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AF9" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AI9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="n">
         <v>50</v>
@@ -1638,10 +1638,10 @@
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N10" t="n">
         <v>2.5</v>
@@ -5166,10 +5166,10 @@
         <v>2.7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K39" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L39" t="n">
         <v>1.57</v>
@@ -5178,10 +5178,10 @@
         <v>2.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
         <v>1.67</v>
@@ -5279,13 +5279,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
@@ -5330,7 +5330,7 @@
         <v>13</v>
       </c>
       <c r="X40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y40" t="n">
         <v>34</v>
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="AC40" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD40" t="n">
         <v>351</v>
@@ -5354,7 +5354,7 @@
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG40" t="n">
         <v>17</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -1013,88 +1013,88 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I5" t="n">
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
         <v>5</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5.5</v>
-      </c>
       <c r="U5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
         <v>51</v>
       </c>
       <c r="Z5" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AD5" t="n">
         <v>101</v>
       </c>
       <c r="AE5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF5" t="n">
         <v>13</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1382,34 +1382,34 @@
         <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J8" t="n">
         <v>1.06</v>
       </c>
       <c r="K8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O8" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R8" t="n">
         <v>1.7</v>
@@ -1418,7 +1418,7 @@
         <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U8" t="n">
         <v>10.25</v>
@@ -1427,7 +1427,7 @@
         <v>8.75</v>
       </c>
       <c r="W8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
@@ -1436,13 +1436,13 @@
         <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
         <v>65</v>
@@ -1454,16 +1454,16 @@
         <v>10.75</v>
       </c>
       <c r="AF8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
         <v>45</v>
@@ -1501,31 +1501,31 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="N9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P9" t="n">
         <v>1.5</v>
@@ -1540,28 +1540,28 @@
         <v>1.75</v>
       </c>
       <c r="T9" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="W9" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y9" t="n">
         <v>40</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" t="n">
         <v>18.5</v>
@@ -1573,22 +1573,22 @@
         <v>1250</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AI9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1644,16 +1644,16 @@
         <v>2.63</v>
       </c>
       <c r="N10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
         <v>2.1</v>
@@ -1662,7 +1662,7 @@
         <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
         <v>10</v>
@@ -1674,13 +1674,13 @@
         <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
         <v>6</v>
@@ -1695,19 +1695,19 @@
         <v>1250</v>
       </c>
       <c r="AE10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF10" t="n">
         <v>15</v>
       </c>
       <c r="AG10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -5279,13 +5279,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="H40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>1.07</v>
@@ -5294,16 +5294,16 @@
         <v>9</v>
       </c>
       <c r="L40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N40" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P40" t="n">
         <v>1.44</v>
@@ -5312,22 +5312,22 @@
         <v>2.63</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S40" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T40" t="n">
         <v>6</v>
       </c>
       <c r="U40" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V40" t="n">
         <v>9</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -5339,10 +5339,10 @@
         <v>8</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="n">
         <v>67</v>
@@ -5351,19 +5351,19 @@
         <v>351</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI40" t="n">
         <v>51</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>41</v>
       </c>
       <c r="AJ40" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-03-31.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ40"/>
+  <dimension ref="A1:AS40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,137 +481,182 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Odd_H_HT</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_D_HT</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_A_HT</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over05_FT</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_FT</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over15_FT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under15_FT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over25_FT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under25_FT</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Odd_Over05_HT</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under05_HT</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_Yes</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Odd_BTTS_No</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-0</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-0</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-1</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-0</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-1</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-2</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-0</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-1</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-2</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_3-3</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_4-4</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-1</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over3_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under3_FT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
         </is>
       </c>
     </row>
@@ -656,86 +701,105 @@
         <v>2.63</v>
       </c>
       <c r="J2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.08</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>8</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>1.4</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>3</v>
       </c>
-      <c r="N2" t="n">
+      <c r="Q2" t="n">
         <v>2.2</v>
       </c>
-      <c r="O2" t="n">
+      <c r="R2" t="n">
         <v>1.67</v>
       </c>
-      <c r="P2" t="n">
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="V2" t="n">
         <v>2.5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="W2" t="n">
         <v>1.91</v>
       </c>
-      <c r="S2" t="n">
+      <c r="X2" t="n">
         <v>1.91</v>
       </c>
-      <c r="T2" t="n">
+      <c r="Y2" t="n">
         <v>8</v>
       </c>
-      <c r="U2" t="n">
+      <c r="Z2" t="n">
         <v>13</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AA2" t="n">
         <v>11</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AB2" t="n">
         <v>29</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AC2" t="n">
         <v>23</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AD2" t="n">
         <v>34</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>301</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK2" t="n">
         <v>12</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AL2" t="n">
         <v>10</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AM2" t="n">
         <v>26</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AN2" t="n">
         <v>23</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AO2" t="n">
         <v>34</v>
       </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -778,86 +842,109 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
         <v>1.08</v>
       </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
         <v>8</v>
       </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
         <v>1.4</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" t="n">
+      <c r="Q3" t="n">
         <v>2.3</v>
       </c>
-      <c r="O3" t="n">
+      <c r="R3" t="n">
         <v>1.62</v>
       </c>
-      <c r="P3" t="n">
+      <c r="S3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="V3" t="n">
         <v>2.5</v>
       </c>
-      <c r="R3" t="n">
+      <c r="W3" t="n">
         <v>2.05</v>
       </c>
-      <c r="S3" t="n">
+      <c r="X3" t="n">
         <v>1.7</v>
       </c>
-      <c r="T3" t="n">
+      <c r="Y3" t="n">
         <v>6</v>
       </c>
-      <c r="U3" t="n">
+      <c r="Z3" t="n">
         <v>7.5</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AA3" t="n">
         <v>9</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AB3" t="n">
         <v>13</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AC3" t="n">
         <v>17</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AD3" t="n">
         <v>34</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AE3" t="n">
         <v>8</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AF3" t="n">
         <v>7</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AG3" t="n">
         <v>19</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AH3" t="n">
         <v>67</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AI3" t="n">
         <v>501</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AJ3" t="n">
         <v>10</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AK3" t="n">
         <v>21</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AL3" t="n">
         <v>15</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AM3" t="n">
         <v>51</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AN3" t="n">
         <v>41</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AO3" t="n">
         <v>51</v>
       </c>
+      <c r="AP3" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -900,86 +987,105 @@
         <v>5.75</v>
       </c>
       <c r="J4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
         <v>1.05</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>11</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>1.29</v>
       </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>3.75</v>
       </c>
-      <c r="N4" t="n">
+      <c r="Q4" t="n">
         <v>1.95</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.75</v>
       </c>
       <c r="R4" t="n">
         <v>1.95</v>
       </c>
       <c r="S4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X4" t="n">
         <v>1.8</v>
       </c>
-      <c r="T4" t="n">
+      <c r="Y4" t="n">
         <v>6.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="Z4" t="n">
         <v>7</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AA4" t="n">
         <v>8.5</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AB4" t="n">
         <v>11</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AC4" t="n">
         <v>13</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AD4" t="n">
         <v>26</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AE4" t="n">
         <v>11</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AF4" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AG4" t="n">
         <v>19</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AH4" t="n">
         <v>51</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AI4" t="n">
         <v>351</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AJ4" t="n">
         <v>15</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AK4" t="n">
         <v>29</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AL4" t="n">
         <v>17</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AM4" t="n">
         <v>67</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AN4" t="n">
         <v>41</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AO4" t="n">
         <v>41</v>
       </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1022,86 +1128,105 @@
         <v>3.1</v>
       </c>
       <c r="J5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.18</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>4.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>1.83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>1.83</v>
       </c>
       <c r="Q5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.98</v>
       </c>
-      <c r="R5" t="n">
+      <c r="W5" t="n">
         <v>2.75</v>
       </c>
-      <c r="S5" t="n">
+      <c r="X5" t="n">
         <v>1.4</v>
       </c>
-      <c r="T5" t="n">
+      <c r="Y5" t="n">
         <v>5</v>
       </c>
-      <c r="U5" t="n">
+      <c r="Z5" t="n">
         <v>11</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AB5" t="n">
         <v>29</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AC5" t="n">
         <v>34</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AD5" t="n">
         <v>51</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AE5" t="n">
         <v>4.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AF5" t="n">
         <v>6</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AG5" t="n">
         <v>26</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AH5" t="n">
         <v>126</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AI5" t="n">
         <v>101</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AJ5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AK5" t="n">
         <v>13</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AL5" t="n">
         <v>15</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AM5" t="n">
         <v>34</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AN5" t="n">
         <v>41</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AO5" t="n">
         <v>51</v>
       </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1144,86 +1269,105 @@
         <v>4.1</v>
       </c>
       <c r="J6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.08</v>
       </c>
-      <c r="K6" t="n">
+      <c r="N6" t="n">
         <v>8</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>1.4</v>
       </c>
-      <c r="M6" t="n">
+      <c r="P6" t="n">
         <v>3</v>
       </c>
-      <c r="N6" t="n">
+      <c r="Q6" t="n">
         <v>2.15</v>
       </c>
-      <c r="O6" t="n">
+      <c r="R6" t="n">
         <v>1.67</v>
       </c>
-      <c r="P6" t="n">
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="V6" t="n">
         <v>2.63</v>
       </c>
-      <c r="R6" t="n">
+      <c r="W6" t="n">
         <v>1.95</v>
       </c>
-      <c r="S6" t="n">
+      <c r="X6" t="n">
         <v>1.8</v>
       </c>
-      <c r="T6" t="n">
+      <c r="Y6" t="n">
         <v>6.5</v>
       </c>
-      <c r="U6" t="n">
+      <c r="Z6" t="n">
         <v>8.5</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AA6" t="n">
         <v>9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>17</v>
-      </c>
-      <c r="X6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
         <v>17</v>
       </c>
       <c r="AC6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH6" t="n">
         <v>51</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AI6" t="n">
         <v>351</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AJ6" t="n">
         <v>10</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
         <v>19</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AL6" t="n">
         <v>15</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AM6" t="n">
         <v>41</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AN6" t="n">
         <v>34</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AO6" t="n">
         <v>41</v>
       </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1266,86 +1410,105 @@
         <v>2.07</v>
       </c>
       <c r="J7" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M7" t="n">
         <v>1.07</v>
       </c>
-      <c r="K7" t="n">
+      <c r="N7" t="n">
         <v>7.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="O7" t="n">
         <v>1.38</v>
       </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>2.9</v>
       </c>
-      <c r="N7" t="n">
+      <c r="Q7" t="n">
         <v>2.18</v>
       </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
         <v>1.65</v>
       </c>
-      <c r="P7" t="n">
+      <c r="S7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.45</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="V7" t="n">
         <v>2.57</v>
       </c>
-      <c r="R7" t="n">
+      <c r="W7" t="n">
         <v>1.88</v>
       </c>
-      <c r="S7" t="n">
+      <c r="X7" t="n">
         <v>1.83</v>
       </c>
-      <c r="T7" t="n">
+      <c r="Y7" t="n">
         <v>10</v>
       </c>
-      <c r="U7" t="n">
+      <c r="Z7" t="n">
         <v>21</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AA7" t="n">
         <v>13</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AB7" t="n">
         <v>60</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AC7" t="n">
         <v>37</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AD7" t="n">
         <v>45</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AE7" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AF7" t="n">
         <v>6.2</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AG7" t="n">
         <v>15.5</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AH7" t="n">
         <v>80</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AI7" t="n">
         <v>700</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AJ7" t="n">
         <v>6.2</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
         <v>9.25</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AL7" t="n">
         <v>9</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AM7" t="n">
         <v>19.5</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AN7" t="n">
         <v>19</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AO7" t="n">
         <v>35</v>
       </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1388,86 +1551,105 @@
         <v>3.9</v>
       </c>
       <c r="J8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M8" t="n">
         <v>1.06</v>
       </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
         <v>7.8</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>1.29</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>3.4</v>
       </c>
-      <c r="N8" t="n">
+      <c r="Q8" t="n">
         <v>1.87</v>
       </c>
-      <c r="O8" t="n">
+      <c r="R8" t="n">
         <v>1.88</v>
       </c>
-      <c r="P8" t="n">
+      <c r="S8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.42</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="V8" t="n">
         <v>2.75</v>
       </c>
-      <c r="R8" t="n">
+      <c r="W8" t="n">
         <v>1.7</v>
       </c>
-      <c r="S8" t="n">
+      <c r="X8" t="n">
         <v>2.02</v>
       </c>
-      <c r="T8" t="n">
+      <c r="Y8" t="n">
         <v>7.5</v>
       </c>
-      <c r="U8" t="n">
+      <c r="Z8" t="n">
         <v>10.25</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AA8" t="n">
         <v>8.75</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AB8" t="n">
         <v>19</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AC8" t="n">
         <v>16</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AD8" t="n">
         <v>26</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AE8" t="n">
         <v>7.8</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AF8" t="n">
         <v>6.8</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AG8" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
         <v>65</v>
       </c>
       <c r="AI8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN8" t="n">
         <v>40</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AO8" t="n">
         <v>45</v>
       </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1510,86 +1692,105 @@
         <v>3.9</v>
       </c>
       <c r="J9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.09</v>
       </c>
-      <c r="K9" t="n">
+      <c r="N9" t="n">
         <v>6.4</v>
       </c>
-      <c r="L9" t="n">
+      <c r="O9" t="n">
         <v>1.42</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>2.7</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>2.25</v>
       </c>
-      <c r="O9" t="n">
+      <c r="R9" t="n">
         <v>1.6</v>
       </c>
-      <c r="P9" t="n">
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="V9" t="n">
         <v>2.5</v>
       </c>
-      <c r="R9" t="n">
+      <c r="W9" t="n">
         <v>1.98</v>
       </c>
-      <c r="S9" t="n">
+      <c r="X9" t="n">
         <v>1.75</v>
       </c>
-      <c r="T9" t="n">
+      <c r="Y9" t="n">
         <v>6</v>
       </c>
-      <c r="U9" t="n">
+      <c r="Z9" t="n">
         <v>9.25</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AA9" t="n">
         <v>9.25</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AB9" t="n">
         <v>19</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AC9" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AD9" t="n">
         <v>40</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AE9" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AF9" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AG9" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AH9" t="n">
         <v>110</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AI9" t="n">
         <v>1250</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AJ9" t="n">
         <v>9</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AK9" t="n">
         <v>21</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AL9" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AM9" t="n">
         <v>70</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AN9" t="n">
         <v>45</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AO9" t="n">
         <v>60</v>
       </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1632,85 +1833,112 @@
         <v>3.25</v>
       </c>
       <c r="J10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.1</v>
       </c>
-      <c r="K10" t="n">
+      <c r="N10" t="n">
         <v>7</v>
       </c>
-      <c r="L10" t="n">
+      <c r="O10" t="n">
         <v>1.44</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>2.63</v>
       </c>
-      <c r="N10" t="n">
+      <c r="Q10" t="n">
         <v>2.4</v>
       </c>
-      <c r="O10" t="n">
+      <c r="R10" t="n">
         <v>1.53</v>
       </c>
-      <c r="P10" t="n">
+      <c r="S10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.53</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="V10" t="n">
         <v>2.38</v>
       </c>
-      <c r="R10" t="n">
+      <c r="W10" t="n">
         <v>2.1</v>
       </c>
-      <c r="S10" t="n">
+      <c r="X10" t="n">
         <v>1.67</v>
       </c>
-      <c r="T10" t="n">
+      <c r="Y10" t="n">
         <v>6.5</v>
       </c>
-      <c r="U10" t="n">
+      <c r="Z10" t="n">
         <v>10</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AA10" t="n">
         <v>10</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AB10" t="n">
         <v>21</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AC10" t="n">
         <v>21</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AD10" t="n">
         <v>41</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AE10" t="n">
         <v>7</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AF10" t="n">
         <v>6</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AG10" t="n">
         <v>19</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AH10" t="n">
         <v>67</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AI10" t="n">
         <v>1250</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AJ10" t="n">
         <v>8</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AK10" t="n">
         <v>15</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AL10" t="n">
         <v>12</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AM10" t="n">
         <v>34</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AN10" t="n">
         <v>29</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AO10" t="n">
         <v>41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1753,83 +1981,102 @@
       <c r="I11" t="n">
         <v>1.93</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.98</v>
+      </c>
       <c r="L11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
         <v>1.28</v>
       </c>
-      <c r="M11" t="n">
+      <c r="P11" t="n">
         <v>3</v>
       </c>
-      <c r="N11" t="n">
+      <c r="Q11" t="n">
         <v>1.91</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.47</v>
       </c>
       <c r="R11" t="n">
         <v>1.7</v>
       </c>
       <c r="S11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X11" t="n">
         <v>1.91</v>
       </c>
-      <c r="T11" t="n">
+      <c r="Y11" t="n">
         <v>11.75</v>
       </c>
-      <c r="U11" t="n">
+      <c r="Z11" t="n">
         <v>24</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AB11" t="n">
         <v>70</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AC11" t="n">
         <v>37</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AD11" t="n">
         <v>40</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AE11" t="n">
         <v>8.75</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AF11" t="n">
         <v>6</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AG11" t="n">
         <v>13</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AH11" t="n">
         <v>60</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AI11" t="n">
         <v>450</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AJ11" t="n">
         <v>6.7</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AK11" t="n">
         <v>9.25</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AL11" t="n">
         <v>8.25</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AM11" t="n">
         <v>18</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AN11" t="n">
         <v>16</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AO11" t="n">
         <v>27</v>
       </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1872,86 +2119,109 @@
         <v>6</v>
       </c>
       <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.03</v>
       </c>
-      <c r="K12" t="n">
+      <c r="N12" t="n">
         <v>15</v>
       </c>
-      <c r="L12" t="n">
+      <c r="O12" t="n">
         <v>1.2</v>
       </c>
-      <c r="M12" t="n">
+      <c r="P12" t="n">
         <v>4.33</v>
       </c>
-      <c r="N12" t="n">
+      <c r="Q12" t="n">
         <v>1.65</v>
       </c>
-      <c r="O12" t="n">
+      <c r="R12" t="n">
         <v>2.2</v>
       </c>
-      <c r="P12" t="n">
+      <c r="S12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="V12" t="n">
         <v>3.4</v>
       </c>
-      <c r="R12" t="n">
+      <c r="W12" t="n">
         <v>1.8</v>
       </c>
-      <c r="S12" t="n">
+      <c r="X12" t="n">
         <v>1.91</v>
       </c>
-      <c r="T12" t="n">
+      <c r="Y12" t="n">
         <v>8</v>
       </c>
-      <c r="U12" t="n">
+      <c r="Z12" t="n">
         <v>7.5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W12" t="n">
-        <v>10</v>
-      </c>
-      <c r="X12" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>8.5</v>
       </c>
       <c r="AB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>17</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AH12" t="n">
         <v>51</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AI12" t="n">
         <v>201</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AJ12" t="n">
         <v>17</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AK12" t="n">
         <v>34</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AL12" t="n">
         <v>19</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AM12" t="n">
         <v>67</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AN12" t="n">
         <v>41</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AO12" t="n">
         <v>41</v>
       </c>
+      <c r="AP12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR12" t="inlineStr"/>
+      <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1994,86 +2264,105 @@
         <v>2.9</v>
       </c>
       <c r="J13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M13" t="n">
         <v>1.04</v>
       </c>
-      <c r="K13" t="n">
+      <c r="N13" t="n">
         <v>13</v>
       </c>
-      <c r="L13" t="n">
+      <c r="O13" t="n">
         <v>1.2</v>
       </c>
-      <c r="M13" t="n">
+      <c r="P13" t="n">
         <v>4.33</v>
       </c>
-      <c r="N13" t="n">
+      <c r="Q13" t="n">
         <v>1.7</v>
       </c>
-      <c r="O13" t="n">
+      <c r="R13" t="n">
         <v>2.1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="S13" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U13" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="V13" t="n">
         <v>3.25</v>
       </c>
-      <c r="R13" t="n">
+      <c r="W13" t="n">
         <v>1.57</v>
       </c>
-      <c r="S13" t="n">
+      <c r="X13" t="n">
         <v>2.25</v>
       </c>
-      <c r="T13" t="n">
+      <c r="Y13" t="n">
         <v>10</v>
-      </c>
-      <c r="U13" t="n">
-        <v>13</v>
-      </c>
-      <c r="V13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W13" t="n">
-        <v>23</v>
-      </c>
-      <c r="X13" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>23</v>
       </c>
       <c r="Z13" t="n">
         <v>13</v>
       </c>
       <c r="AA13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>17</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM13" t="n">
         <v>29</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AN13" t="n">
         <v>21</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AO13" t="n">
         <v>26</v>
       </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="inlineStr"/>
+      <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2116,86 +2405,109 @@
         <v>1.6</v>
       </c>
       <c r="J14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.02</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
         <v>19</v>
       </c>
-      <c r="L14" t="n">
+      <c r="O14" t="n">
         <v>1.13</v>
       </c>
-      <c r="M14" t="n">
+      <c r="P14" t="n">
         <v>6</v>
       </c>
-      <c r="N14" t="n">
+      <c r="Q14" t="n">
         <v>1.44</v>
       </c>
-      <c r="O14" t="n">
+      <c r="R14" t="n">
         <v>2.7</v>
       </c>
-      <c r="P14" t="n">
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U14" t="n">
         <v>1.22</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="V14" t="n">
         <v>4</v>
       </c>
-      <c r="R14" t="n">
+      <c r="W14" t="n">
         <v>1.5</v>
       </c>
-      <c r="S14" t="n">
+      <c r="X14" t="n">
         <v>2.5</v>
       </c>
-      <c r="T14" t="n">
+      <c r="Y14" t="n">
         <v>21</v>
       </c>
-      <c r="U14" t="n">
+      <c r="Z14" t="n">
         <v>29</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AA14" t="n">
         <v>17</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AB14" t="n">
         <v>51</v>
-      </c>
-      <c r="X14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
       </c>
       <c r="AD14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI14" t="n">
         <v>101</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AJ14" t="n">
         <v>12</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AK14" t="n">
         <v>11</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AL14" t="n">
         <v>8.5</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AM14" t="n">
         <v>13</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AN14" t="n">
         <v>11</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AO14" t="n">
         <v>17</v>
       </c>
+      <c r="AP14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR14" t="inlineStr"/>
+      <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2238,86 +2550,109 @@
         <v>4.75</v>
       </c>
       <c r="J15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+      <c r="M15" t="n">
         <v>1.03</v>
       </c>
-      <c r="K15" t="n">
+      <c r="N15" t="n">
         <v>17</v>
       </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
         <v>1.17</v>
       </c>
-      <c r="M15" t="n">
+      <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="N15" t="n">
+      <c r="Q15" t="n">
         <v>1.53</v>
       </c>
-      <c r="O15" t="n">
+      <c r="R15" t="n">
         <v>2.4</v>
       </c>
-      <c r="P15" t="n">
+      <c r="S15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U15" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="V15" t="n">
         <v>3.5</v>
       </c>
-      <c r="R15" t="n">
+      <c r="W15" t="n">
         <v>1.62</v>
       </c>
-      <c r="S15" t="n">
+      <c r="X15" t="n">
         <v>2.2</v>
       </c>
-      <c r="T15" t="n">
+      <c r="Y15" t="n">
         <v>9.5</v>
       </c>
-      <c r="U15" t="n">
+      <c r="Z15" t="n">
         <v>9</v>
-      </c>
-      <c r="V15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>13</v>
-      </c>
-      <c r="X15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>17</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AG15" t="n">
         <v>15</v>
       </c>
       <c r="AH15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM15" t="n">
         <v>51</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AN15" t="n">
         <v>34</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AO15" t="n">
         <v>34</v>
       </c>
+      <c r="AP15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2360,86 +2695,109 @@
         <v>3.5</v>
       </c>
       <c r="J16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.02</v>
       </c>
-      <c r="K16" t="n">
+      <c r="N16" t="n">
         <v>19</v>
       </c>
-      <c r="L16" t="n">
+      <c r="O16" t="n">
         <v>1.14</v>
       </c>
-      <c r="M16" t="n">
+      <c r="P16" t="n">
         <v>5.5</v>
       </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
         <v>1.48</v>
       </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
         <v>2.6</v>
       </c>
-      <c r="P16" t="n">
+      <c r="S16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.25</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="V16" t="n">
         <v>3.75</v>
       </c>
-      <c r="R16" t="n">
+      <c r="W16" t="n">
         <v>1.44</v>
       </c>
-      <c r="S16" t="n">
+      <c r="X16" t="n">
         <v>2.63</v>
       </c>
-      <c r="T16" t="n">
+      <c r="Y16" t="n">
         <v>12</v>
       </c>
-      <c r="U16" t="n">
+      <c r="Z16" t="n">
         <v>12</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AA16" t="n">
         <v>9</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AB16" t="n">
         <v>19</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AC16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AD16" t="n">
         <v>19</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AE16" t="n">
         <v>19</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AF16" t="n">
         <v>8</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AG16" t="n">
         <v>11</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AH16" t="n">
         <v>29</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AI16" t="n">
         <v>81</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AJ16" t="n">
         <v>17</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AK16" t="n">
         <v>21</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AL16" t="n">
         <v>13</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AM16" t="n">
         <v>41</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AN16" t="n">
         <v>23</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AO16" t="n">
         <v>23</v>
       </c>
+      <c r="AP16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2482,86 +2840,109 @@
         <v>2.45</v>
       </c>
       <c r="J17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M17" t="n">
         <v>1.04</v>
       </c>
-      <c r="K17" t="n">
+      <c r="N17" t="n">
         <v>13</v>
       </c>
-      <c r="L17" t="n">
+      <c r="O17" t="n">
         <v>1.22</v>
       </c>
-      <c r="M17" t="n">
+      <c r="P17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="n">
+      <c r="Q17" t="n">
         <v>1.8</v>
       </c>
-      <c r="O17" t="n">
+      <c r="R17" t="n">
         <v>2</v>
       </c>
-      <c r="P17" t="n">
+      <c r="S17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="V17" t="n">
         <v>3.25</v>
       </c>
-      <c r="R17" t="n">
+      <c r="W17" t="n">
         <v>1.57</v>
       </c>
-      <c r="S17" t="n">
+      <c r="X17" t="n">
         <v>2.25</v>
       </c>
-      <c r="T17" t="n">
+      <c r="Y17" t="n">
         <v>11</v>
       </c>
-      <c r="U17" t="n">
+      <c r="Z17" t="n">
         <v>15</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AA17" t="n">
         <v>10</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AB17" t="n">
         <v>26</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AC17" t="n">
         <v>21</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AD17" t="n">
         <v>26</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
         <v>13</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AF17" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AG17" t="n">
         <v>12</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AH17" t="n">
         <v>41</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AI17" t="n">
         <v>151</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AJ17" t="n">
         <v>10</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AK17" t="n">
         <v>13</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AL17" t="n">
         <v>10</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AM17" t="n">
         <v>23</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AN17" t="n">
         <v>19</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AO17" t="n">
         <v>23</v>
       </c>
+      <c r="AP17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR17" t="inlineStr"/>
+      <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2604,86 +2985,109 @@
         <v>4.75</v>
       </c>
       <c r="J18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
         <v>1.03</v>
       </c>
-      <c r="K18" t="n">
+      <c r="N18" t="n">
         <v>17</v>
       </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>1.17</v>
       </c>
-      <c r="M18" t="n">
+      <c r="P18" t="n">
         <v>5</v>
       </c>
-      <c r="N18" t="n">
+      <c r="Q18" t="n">
         <v>1.57</v>
       </c>
-      <c r="O18" t="n">
+      <c r="R18" t="n">
         <v>2.35</v>
       </c>
-      <c r="P18" t="n">
+      <c r="S18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U18" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="V18" t="n">
         <v>3.4</v>
       </c>
-      <c r="R18" t="n">
+      <c r="W18" t="n">
         <v>1.67</v>
       </c>
-      <c r="S18" t="n">
+      <c r="X18" t="n">
         <v>2.1</v>
       </c>
-      <c r="T18" t="n">
+      <c r="Y18" t="n">
         <v>9</v>
       </c>
-      <c r="U18" t="n">
+      <c r="Z18" t="n">
         <v>9</v>
-      </c>
-      <c r="V18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W18" t="n">
-        <v>13</v>
-      </c>
-      <c r="X18" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>15</v>
       </c>
       <c r="AA18" t="n">
         <v>8.5</v>
       </c>
       <c r="AB18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
         <v>15</v>
       </c>
-      <c r="AC18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>17</v>
-      </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM18" t="n">
         <v>51</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AN18" t="n">
         <v>34</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AO18" t="n">
         <v>34</v>
       </c>
+      <c r="AP18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR18" t="inlineStr"/>
+      <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2726,86 +3130,109 @@
         <v>4.33</v>
       </c>
       <c r="J19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.03</v>
       </c>
-      <c r="K19" t="n">
+      <c r="N19" t="n">
         <v>15</v>
       </c>
-      <c r="L19" t="n">
+      <c r="O19" t="n">
         <v>1.18</v>
       </c>
-      <c r="M19" t="n">
+      <c r="P19" t="n">
         <v>4.5</v>
       </c>
-      <c r="N19" t="n">
+      <c r="Q19" t="n">
         <v>1.62</v>
       </c>
-      <c r="O19" t="n">
+      <c r="R19" t="n">
         <v>2.25</v>
       </c>
-      <c r="P19" t="n">
+      <c r="S19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="V19" t="n">
         <v>3.4</v>
       </c>
-      <c r="R19" t="n">
+      <c r="W19" t="n">
         <v>1.62</v>
       </c>
-      <c r="S19" t="n">
+      <c r="X19" t="n">
         <v>2.2</v>
       </c>
-      <c r="T19" t="n">
+      <c r="Y19" t="n">
         <v>9</v>
       </c>
-      <c r="U19" t="n">
+      <c r="Z19" t="n">
         <v>9.5</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AA19" t="n">
         <v>8.5</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AB19" t="n">
         <v>15</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AC19" t="n">
         <v>13</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AD19" t="n">
         <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>151</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>41</v>
       </c>
       <c r="AI19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
         <v>34</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AO19" t="n">
         <v>34</v>
       </c>
+      <c r="AP19" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR19" t="inlineStr"/>
+      <c r="AS19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2848,86 +3275,109 @@
         <v>5</v>
       </c>
       <c r="J20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.04</v>
       </c>
-      <c r="K20" t="n">
+      <c r="N20" t="n">
         <v>13</v>
       </c>
-      <c r="L20" t="n">
+      <c r="O20" t="n">
         <v>1.22</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>4</v>
       </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
         <v>1.73</v>
       </c>
-      <c r="O20" t="n">
+      <c r="R20" t="n">
         <v>2.08</v>
       </c>
-      <c r="P20" t="n">
+      <c r="S20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="V20" t="n">
         <v>3.25</v>
       </c>
-      <c r="R20" t="n">
+      <c r="W20" t="n">
         <v>1.83</v>
       </c>
-      <c r="S20" t="n">
+      <c r="X20" t="n">
         <v>1.83</v>
       </c>
-      <c r="T20" t="n">
+      <c r="Y20" t="n">
         <v>7.5</v>
       </c>
-      <c r="U20" t="n">
+      <c r="Z20" t="n">
         <v>8</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AA20" t="n">
         <v>8.5</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AB20" t="n">
         <v>12</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AC20" t="n">
         <v>13</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AD20" t="n">
         <v>23</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AE20" t="n">
         <v>13</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AF20" t="n">
         <v>8</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AG20" t="n">
         <v>17</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>15</v>
       </c>
       <c r="AH20" t="n">
         <v>51</v>
       </c>
       <c r="AI20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN20" t="n">
         <v>41</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AO20" t="n">
         <v>41</v>
       </c>
+      <c r="AP20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2970,86 +3420,109 @@
         <v>2.75</v>
       </c>
       <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M21" t="n">
         <v>1.04</v>
       </c>
-      <c r="K21" t="n">
+      <c r="N21" t="n">
         <v>13</v>
       </c>
-      <c r="L21" t="n">
+      <c r="O21" t="n">
         <v>1.22</v>
       </c>
-      <c r="M21" t="n">
+      <c r="P21" t="n">
         <v>4</v>
       </c>
-      <c r="N21" t="n">
+      <c r="Q21" t="n">
         <v>1.7</v>
       </c>
-      <c r="O21" t="n">
+      <c r="R21" t="n">
         <v>2.1</v>
       </c>
-      <c r="P21" t="n">
+      <c r="S21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U21" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="V21" t="n">
         <v>3.25</v>
       </c>
-      <c r="R21" t="n">
+      <c r="W21" t="n">
         <v>1.62</v>
       </c>
-      <c r="S21" t="n">
+      <c r="X21" t="n">
         <v>2.2</v>
       </c>
-      <c r="T21" t="n">
+      <c r="Y21" t="n">
         <v>10</v>
-      </c>
-      <c r="U21" t="n">
-        <v>13</v>
-      </c>
-      <c r="V21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W21" t="n">
-        <v>23</v>
-      </c>
-      <c r="X21" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>23</v>
       </c>
       <c r="Z21" t="n">
         <v>13</v>
       </c>
       <c r="AA21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
         <v>7</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AG21" t="n">
         <v>13</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AH21" t="n">
         <v>41</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AI21" t="n">
         <v>151</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AJ21" t="n">
         <v>11</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AK21" t="n">
         <v>15</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AL21" t="n">
         <v>11</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AM21" t="n">
         <v>29</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AN21" t="n">
         <v>21</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AO21" t="n">
         <v>26</v>
       </c>
+      <c r="AP21" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR21" t="inlineStr"/>
+      <c r="AS21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3092,86 +3565,109 @@
         <v>4.33</v>
       </c>
       <c r="J22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.03</v>
       </c>
-      <c r="K22" t="n">
+      <c r="N22" t="n">
         <v>17</v>
       </c>
-      <c r="L22" t="n">
+      <c r="O22" t="n">
         <v>1.14</v>
       </c>
-      <c r="M22" t="n">
+      <c r="P22" t="n">
         <v>5.5</v>
       </c>
-      <c r="N22" t="n">
+      <c r="Q22" t="n">
         <v>1.53</v>
       </c>
-      <c r="O22" t="n">
+      <c r="R22" t="n">
         <v>2.4</v>
       </c>
-      <c r="P22" t="n">
+      <c r="S22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.29</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="V22" t="n">
         <v>3.5</v>
       </c>
-      <c r="R22" t="n">
+      <c r="W22" t="n">
         <v>1.53</v>
       </c>
-      <c r="S22" t="n">
+      <c r="X22" t="n">
         <v>2.38</v>
       </c>
-      <c r="T22" t="n">
+      <c r="Y22" t="n">
         <v>11</v>
       </c>
-      <c r="U22" t="n">
+      <c r="Z22" t="n">
         <v>10</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AA22" t="n">
         <v>8.5</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AB22" t="n">
         <v>15</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AC22" t="n">
         <v>12</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AD22" t="n">
         <v>19</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>101</v>
       </c>
       <c r="AE22" t="n">
         <v>17</v>
       </c>
       <c r="AF22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK22" t="n">
         <v>26</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AL22" t="n">
         <v>15</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AM22" t="n">
         <v>41</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AN22" t="n">
         <v>29</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AO22" t="n">
         <v>29</v>
       </c>
+      <c r="AP22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AR22" t="inlineStr"/>
+      <c r="AS22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3214,73 +3710,73 @@
         <v>3.6</v>
       </c>
       <c r="J23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
         <v>1.03</v>
       </c>
-      <c r="K23" t="n">
+      <c r="N23" t="n">
         <v>15</v>
       </c>
-      <c r="L23" t="n">
+      <c r="O23" t="n">
         <v>1.2</v>
       </c>
-      <c r="M23" t="n">
+      <c r="P23" t="n">
         <v>4.33</v>
       </c>
-      <c r="N23" t="n">
+      <c r="Q23" t="n">
         <v>1.67</v>
       </c>
-      <c r="O23" t="n">
+      <c r="R23" t="n">
         <v>2.15</v>
       </c>
-      <c r="P23" t="n">
+      <c r="S23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.3</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="V23" t="n">
         <v>3.4</v>
       </c>
-      <c r="R23" t="n">
+      <c r="W23" t="n">
         <v>1.57</v>
       </c>
-      <c r="S23" t="n">
+      <c r="X23" t="n">
         <v>2.25</v>
       </c>
-      <c r="T23" t="n">
+      <c r="Y23" t="n">
         <v>9.5</v>
       </c>
-      <c r="U23" t="n">
+      <c r="Z23" t="n">
         <v>10</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AA23" t="n">
         <v>8.5</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AB23" t="n">
         <v>17</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AC23" t="n">
         <v>13</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AD23" t="n">
         <v>21</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AE23" t="n">
         <v>15</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AF23" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>13</v>
@@ -3289,11 +3785,34 @@
         <v>41</v>
       </c>
       <c r="AI23" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
         <v>26</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AO23" t="n">
         <v>29</v>
       </c>
+      <c r="AP23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR23" t="inlineStr"/>
+      <c r="AS23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3336,86 +3855,105 @@
         <v>1.85</v>
       </c>
       <c r="J24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M24" t="n">
         <v>1.07</v>
       </c>
-      <c r="K24" t="n">
+      <c r="N24" t="n">
         <v>9</v>
       </c>
-      <c r="L24" t="n">
+      <c r="O24" t="n">
         <v>1.36</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>3</v>
       </c>
-      <c r="N24" t="n">
+      <c r="Q24" t="n">
         <v>2.15</v>
       </c>
-      <c r="O24" t="n">
+      <c r="R24" t="n">
         <v>1.67</v>
       </c>
-      <c r="P24" t="n">
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="V24" t="n">
         <v>2.63</v>
       </c>
-      <c r="R24" t="n">
+      <c r="W24" t="n">
         <v>1.95</v>
       </c>
-      <c r="S24" t="n">
+      <c r="X24" t="n">
         <v>1.8</v>
       </c>
-      <c r="T24" t="n">
+      <c r="Y24" t="n">
         <v>10</v>
       </c>
-      <c r="U24" t="n">
+      <c r="Z24" t="n">
         <v>21</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AA24" t="n">
         <v>15</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AB24" t="n">
         <v>41</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AC24" t="n">
         <v>41</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AD24" t="n">
         <v>41</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AE24" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AF24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AG24" t="n">
         <v>17</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AH24" t="n">
         <v>51</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AI24" t="n">
         <v>401</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AJ24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AK24" t="n">
         <v>8</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AL24" t="n">
         <v>9</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AM24" t="n">
         <v>15</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AN24" t="n">
         <v>17</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AO24" t="n">
         <v>29</v>
       </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3458,86 +3996,105 @@
         <v>2.8</v>
       </c>
       <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M25" t="n">
         <v>1.05</v>
       </c>
-      <c r="K25" t="n">
+      <c r="N25" t="n">
         <v>11</v>
       </c>
-      <c r="L25" t="n">
+      <c r="O25" t="n">
         <v>1.25</v>
       </c>
-      <c r="M25" t="n">
+      <c r="P25" t="n">
         <v>3.75</v>
       </c>
-      <c r="N25" t="n">
+      <c r="Q25" t="n">
         <v>1.93</v>
       </c>
-      <c r="O25" t="n">
+      <c r="R25" t="n">
         <v>1.93</v>
       </c>
-      <c r="P25" t="n">
+      <c r="S25" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="V25" t="n">
         <v>2.75</v>
       </c>
-      <c r="R25" t="n">
+      <c r="W25" t="n">
         <v>1.67</v>
       </c>
-      <c r="S25" t="n">
+      <c r="X25" t="n">
         <v>2.1</v>
       </c>
-      <c r="T25" t="n">
+      <c r="Y25" t="n">
         <v>9</v>
       </c>
-      <c r="U25" t="n">
+      <c r="Z25" t="n">
         <v>13</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AA25" t="n">
         <v>10</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AB25" t="n">
         <v>23</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AC25" t="n">
         <v>19</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AD25" t="n">
         <v>29</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>151</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK25" t="n">
         <v>15</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AL25" t="n">
         <v>11</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AM25" t="n">
         <v>29</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AN25" t="n">
         <v>21</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AO25" t="n">
         <v>29</v>
       </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+      <c r="AR25" t="inlineStr"/>
+      <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3580,86 +4137,105 @@
         <v>3</v>
       </c>
       <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M26" t="n">
         <v>1.07</v>
       </c>
-      <c r="K26" t="n">
+      <c r="N26" t="n">
         <v>8.5</v>
       </c>
-      <c r="L26" t="n">
+      <c r="O26" t="n">
         <v>1.36</v>
       </c>
-      <c r="M26" t="n">
+      <c r="P26" t="n">
         <v>3</v>
       </c>
-      <c r="N26" t="n">
+      <c r="Q26" t="n">
         <v>2.15</v>
       </c>
-      <c r="O26" t="n">
+      <c r="R26" t="n">
         <v>1.67</v>
       </c>
-      <c r="P26" t="n">
+      <c r="S26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="V26" t="n">
         <v>2.63</v>
       </c>
-      <c r="R26" t="n">
+      <c r="W26" t="n">
         <v>1.83</v>
       </c>
-      <c r="S26" t="n">
+      <c r="X26" t="n">
         <v>1.83</v>
       </c>
-      <c r="T26" t="n">
+      <c r="Y26" t="n">
         <v>7.5</v>
       </c>
-      <c r="U26" t="n">
+      <c r="Z26" t="n">
         <v>11</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AA26" t="n">
         <v>10</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AB26" t="n">
         <v>23</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AC26" t="n">
         <v>21</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AD26" t="n">
         <v>34</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>301</v>
       </c>
       <c r="AE26" t="n">
         <v>8.5</v>
       </c>
       <c r="AF26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG26" t="n">
         <v>15</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL26" t="n">
         <v>11</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AM26" t="n">
         <v>34</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AN26" t="n">
         <v>26</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AO26" t="n">
         <v>34</v>
       </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+      <c r="AR26" t="inlineStr"/>
+      <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3702,85 +4278,108 @@
         <v>2.5</v>
       </c>
       <c r="J27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M27" t="n">
         <v>1.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="N27" t="n">
         <v>7</v>
       </c>
-      <c r="L27" t="n">
+      <c r="O27" t="n">
         <v>1.44</v>
       </c>
-      <c r="M27" t="n">
+      <c r="P27" t="n">
         <v>2.63</v>
       </c>
-      <c r="N27" t="n">
+      <c r="Q27" t="n">
         <v>2.4</v>
       </c>
-      <c r="O27" t="n">
+      <c r="R27" t="n">
         <v>1.53</v>
       </c>
-      <c r="P27" t="n">
+      <c r="S27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="V27" t="n">
         <v>2.25</v>
       </c>
-      <c r="R27" t="n">
+      <c r="W27" t="n">
         <v>2</v>
       </c>
-      <c r="S27" t="n">
+      <c r="X27" t="n">
         <v>1.73</v>
       </c>
-      <c r="T27" t="n">
+      <c r="Y27" t="n">
         <v>7.5</v>
       </c>
-      <c r="U27" t="n">
+      <c r="Z27" t="n">
         <v>13</v>
       </c>
-      <c r="V27" t="n">
+      <c r="AA27" t="n">
         <v>12</v>
       </c>
-      <c r="W27" t="n">
+      <c r="AB27" t="n">
         <v>29</v>
       </c>
-      <c r="X27" t="n">
+      <c r="AC27" t="n">
         <v>29</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="AD27" t="n">
         <v>41</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AE27" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AF27" t="n">
         <v>6</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AG27" t="n">
         <v>17</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AH27" t="n">
         <v>67</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AI27" t="n">
         <v>1250</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AJ27" t="n">
         <v>7</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AK27" t="n">
         <v>11</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AL27" t="n">
         <v>11</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AM27" t="n">
         <v>26</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AN27" t="n">
         <v>23</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AO27" t="n">
         <v>41</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+      <c r="AR27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -3824,85 +4423,108 @@
         <v>2.3</v>
       </c>
       <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M28" t="n">
         <v>1.11</v>
       </c>
-      <c r="K28" t="n">
+      <c r="N28" t="n">
         <v>6.5</v>
       </c>
-      <c r="L28" t="n">
+      <c r="O28" t="n">
         <v>1.5</v>
       </c>
-      <c r="M28" t="n">
+      <c r="P28" t="n">
         <v>2.5</v>
       </c>
-      <c r="N28" t="n">
+      <c r="Q28" t="n">
         <v>2.6</v>
       </c>
-      <c r="O28" t="n">
+      <c r="R28" t="n">
         <v>1.48</v>
       </c>
-      <c r="P28" t="n">
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="U28" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="V28" t="n">
         <v>2.25</v>
       </c>
-      <c r="R28" t="n">
+      <c r="W28" t="n">
         <v>2.1</v>
       </c>
-      <c r="S28" t="n">
+      <c r="X28" t="n">
         <v>1.67</v>
       </c>
-      <c r="T28" t="n">
+      <c r="Y28" t="n">
         <v>8</v>
       </c>
-      <c r="U28" t="n">
+      <c r="Z28" t="n">
         <v>15</v>
       </c>
-      <c r="V28" t="n">
+      <c r="AA28" t="n">
         <v>13</v>
       </c>
-      <c r="W28" t="n">
+      <c r="AB28" t="n">
         <v>41</v>
       </c>
-      <c r="X28" t="n">
+      <c r="AC28" t="n">
         <v>34</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="AD28" t="n">
         <v>41</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>101</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
       </c>
       <c r="AF28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK28" t="n">
         <v>10</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AL28" t="n">
         <v>10</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AM28" t="n">
         <v>21</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AN28" t="n">
         <v>23</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AO28" t="n">
         <v>41</v>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+      <c r="AR28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="29">
@@ -3946,85 +4568,108 @@
         <v>2.25</v>
       </c>
       <c r="J29" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M29" t="n">
         <v>1.07</v>
       </c>
-      <c r="K29" t="n">
+      <c r="N29" t="n">
         <v>9</v>
       </c>
-      <c r="L29" t="n">
+      <c r="O29" t="n">
         <v>1.36</v>
       </c>
-      <c r="M29" t="n">
+      <c r="P29" t="n">
         <v>3</v>
       </c>
-      <c r="N29" t="n">
+      <c r="Q29" t="n">
         <v>2.2</v>
       </c>
-      <c r="O29" t="n">
+      <c r="R29" t="n">
         <v>1.65</v>
       </c>
-      <c r="P29" t="n">
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.5</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="V29" t="n">
         <v>2.5</v>
       </c>
-      <c r="R29" t="n">
+      <c r="W29" t="n">
         <v>2</v>
       </c>
-      <c r="S29" t="n">
+      <c r="X29" t="n">
         <v>1.73</v>
       </c>
-      <c r="T29" t="n">
+      <c r="Y29" t="n">
         <v>8</v>
       </c>
-      <c r="U29" t="n">
+      <c r="Z29" t="n">
         <v>15</v>
       </c>
-      <c r="V29" t="n">
+      <c r="AA29" t="n">
         <v>12</v>
       </c>
-      <c r="W29" t="n">
+      <c r="AB29" t="n">
         <v>34</v>
       </c>
-      <c r="X29" t="n">
+      <c r="AC29" t="n">
         <v>29</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="AD29" t="n">
         <v>41</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AE29" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AF29" t="n">
         <v>6</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AG29" t="n">
         <v>17</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AH29" t="n">
         <v>51</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AI29" t="n">
         <v>900</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AJ29" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AK29" t="n">
         <v>10</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AL29" t="n">
         <v>10</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AM29" t="n">
         <v>21</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AN29" t="n">
         <v>21</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AO29" t="n">
         <v>34</v>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+      <c r="AR29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="30">
@@ -4068,85 +4713,108 @@
         <v>3.6</v>
       </c>
       <c r="J30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M30" t="n">
         <v>1.13</v>
       </c>
-      <c r="K30" t="n">
+      <c r="N30" t="n">
         <v>6</v>
       </c>
-      <c r="L30" t="n">
+      <c r="O30" t="n">
         <v>1.57</v>
       </c>
-      <c r="M30" t="n">
+      <c r="P30" t="n">
         <v>2.25</v>
       </c>
-      <c r="N30" t="n">
+      <c r="Q30" t="n">
         <v>2.88</v>
       </c>
-      <c r="O30" t="n">
+      <c r="R30" t="n">
         <v>1.4</v>
       </c>
-      <c r="P30" t="n">
+      <c r="S30" t="n">
+        <v>6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.62</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="V30" t="n">
         <v>2.2</v>
       </c>
-      <c r="R30" t="n">
+      <c r="W30" t="n">
         <v>2.25</v>
       </c>
-      <c r="S30" t="n">
+      <c r="X30" t="n">
         <v>1.57</v>
       </c>
-      <c r="T30" t="n">
+      <c r="Y30" t="n">
         <v>5.5</v>
       </c>
-      <c r="U30" t="n">
+      <c r="Z30" t="n">
         <v>9.5</v>
       </c>
-      <c r="V30" t="n">
+      <c r="AA30" t="n">
         <v>10</v>
-      </c>
-      <c r="W30" t="n">
-        <v>21</v>
-      </c>
-      <c r="X30" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>6</v>
       </c>
       <c r="AB30" t="n">
         <v>21</v>
       </c>
       <c r="AC30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH30" t="n">
         <v>81</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AI30" t="n">
         <v>351</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AJ30" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AK30" t="n">
         <v>15</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AL30" t="n">
         <v>15</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AM30" t="n">
         <v>41</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AN30" t="n">
         <v>41</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AO30" t="n">
         <v>51</v>
+      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+      <c r="AR30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="31">
@@ -4190,86 +4858,105 @@
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M31" t="n">
         <v>1.06</v>
       </c>
-      <c r="K31" t="n">
+      <c r="N31" t="n">
         <v>10</v>
       </c>
-      <c r="L31" t="n">
+      <c r="O31" t="n">
         <v>1.3</v>
       </c>
-      <c r="M31" t="n">
+      <c r="P31" t="n">
         <v>3.4</v>
       </c>
-      <c r="N31" t="n">
+      <c r="Q31" t="n">
         <v>2.03</v>
       </c>
-      <c r="O31" t="n">
+      <c r="R31" t="n">
         <v>1.83</v>
       </c>
-      <c r="P31" t="n">
+      <c r="S31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U31" t="n">
         <v>1.4</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="V31" t="n">
         <v>2.75</v>
       </c>
-      <c r="R31" t="n">
+      <c r="W31" t="n">
         <v>1.8</v>
       </c>
-      <c r="S31" t="n">
+      <c r="X31" t="n">
         <v>1.95</v>
       </c>
-      <c r="T31" t="n">
+      <c r="Y31" t="n">
         <v>7.5</v>
-      </c>
-      <c r="U31" t="n">
-        <v>10</v>
-      </c>
-      <c r="V31" t="n">
-        <v>9</v>
-      </c>
-      <c r="W31" t="n">
-        <v>21</v>
-      </c>
-      <c r="X31" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>29</v>
       </c>
       <c r="Z31" t="n">
         <v>10</v>
       </c>
       <c r="AA31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF31" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AG31" t="n">
         <v>15</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AH31" t="n">
         <v>51</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AI31" t="n">
         <v>251</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AJ31" t="n">
         <v>9.5</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AK31" t="n">
         <v>15</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AL31" t="n">
         <v>11</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AM31" t="n">
         <v>34</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AN31" t="n">
         <v>26</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AO31" t="n">
         <v>34</v>
       </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+      <c r="AR31" t="inlineStr"/>
+      <c r="AS31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4312,85 +4999,108 @@
         <v>2.8</v>
       </c>
       <c r="J32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M32" t="n">
         <v>1.11</v>
       </c>
-      <c r="K32" t="n">
+      <c r="N32" t="n">
         <v>6.5</v>
       </c>
-      <c r="L32" t="n">
+      <c r="O32" t="n">
         <v>1.53</v>
       </c>
-      <c r="M32" t="n">
+      <c r="P32" t="n">
         <v>2.38</v>
       </c>
-      <c r="N32" t="n">
+      <c r="Q32" t="n">
         <v>2.7</v>
       </c>
-      <c r="O32" t="n">
+      <c r="R32" t="n">
         <v>1.44</v>
       </c>
-      <c r="P32" t="n">
+      <c r="S32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.57</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="V32" t="n">
         <v>2.25</v>
       </c>
-      <c r="R32" t="n">
+      <c r="W32" t="n">
         <v>2.1</v>
       </c>
-      <c r="S32" t="n">
+      <c r="X32" t="n">
         <v>1.67</v>
       </c>
-      <c r="T32" t="n">
+      <c r="Y32" t="n">
         <v>6.5</v>
       </c>
-      <c r="U32" t="n">
+      <c r="Z32" t="n">
         <v>11</v>
       </c>
-      <c r="V32" t="n">
+      <c r="AA32" t="n">
         <v>11</v>
       </c>
-      <c r="W32" t="n">
+      <c r="AB32" t="n">
         <v>26</v>
       </c>
-      <c r="X32" t="n">
+      <c r="AC32" t="n">
         <v>26</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="AD32" t="n">
         <v>41</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AE32" t="n">
         <v>6.5</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AF32" t="n">
         <v>6</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AG32" t="n">
         <v>19</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AH32" t="n">
         <v>67</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AI32" t="n">
         <v>501</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AJ32" t="n">
         <v>7</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AK32" t="n">
         <v>12</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AL32" t="n">
         <v>11</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AM32" t="n">
         <v>29</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AN32" t="n">
         <v>29</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AO32" t="n">
         <v>41</v>
+      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+      <c r="AR32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="33">
@@ -4434,86 +5144,105 @@
         <v>4.5</v>
       </c>
       <c r="J33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M33" t="n">
         <v>1.04</v>
       </c>
-      <c r="K33" t="n">
+      <c r="N33" t="n">
         <v>13</v>
       </c>
-      <c r="L33" t="n">
+      <c r="O33" t="n">
         <v>1.25</v>
       </c>
-      <c r="M33" t="n">
+      <c r="P33" t="n">
         <v>3.75</v>
       </c>
-      <c r="N33" t="n">
+      <c r="Q33" t="n">
         <v>1.85</v>
       </c>
-      <c r="O33" t="n">
+      <c r="R33" t="n">
         <v>2</v>
       </c>
-      <c r="P33" t="n">
+      <c r="S33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U33" t="n">
         <v>1.36</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="V33" t="n">
         <v>3</v>
       </c>
-      <c r="R33" t="n">
+      <c r="W33" t="n">
         <v>1.8</v>
       </c>
-      <c r="S33" t="n">
+      <c r="X33" t="n">
         <v>1.95</v>
       </c>
-      <c r="T33" t="n">
+      <c r="Y33" t="n">
         <v>7.5</v>
       </c>
-      <c r="U33" t="n">
+      <c r="Z33" t="n">
         <v>8</v>
       </c>
-      <c r="V33" t="n">
+      <c r="AA33" t="n">
         <v>8.5</v>
       </c>
-      <c r="W33" t="n">
+      <c r="AB33" t="n">
         <v>12</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AC33" t="n">
         <v>13</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="AD33" t="n">
         <v>23</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AE33" t="n">
         <v>12</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AF33" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AG33" t="n">
         <v>17</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>15</v>
       </c>
       <c r="AH33" t="n">
         <v>51</v>
       </c>
       <c r="AI33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN33" t="n">
         <v>41</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AO33" t="n">
         <v>41</v>
       </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+      <c r="AR33" t="inlineStr"/>
+      <c r="AS33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4556,86 +5285,105 @@
         <v>2.12</v>
       </c>
       <c r="J34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M34" t="n">
         <v>1.07</v>
       </c>
-      <c r="K34" t="n">
+      <c r="N34" t="n">
         <v>6.9</v>
       </c>
-      <c r="L34" t="n">
+      <c r="O34" t="n">
         <v>1.33</v>
       </c>
-      <c r="M34" t="n">
+      <c r="P34" t="n">
         <v>3.05</v>
       </c>
-      <c r="N34" t="n">
+      <c r="Q34" t="n">
         <v>1.98</v>
       </c>
-      <c r="O34" t="n">
+      <c r="R34" t="n">
         <v>1.75</v>
       </c>
-      <c r="P34" t="n">
+      <c r="S34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.39</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="V34" t="n">
         <v>2.75</v>
       </c>
-      <c r="R34" t="n">
+      <c r="W34" t="n">
         <v>1.78</v>
       </c>
-      <c r="S34" t="n">
+      <c r="X34" t="n">
         <v>1.93</v>
       </c>
-      <c r="T34" t="n">
+      <c r="Y34" t="n">
         <v>9.75</v>
       </c>
-      <c r="U34" t="n">
+      <c r="Z34" t="n">
         <v>17.5</v>
       </c>
-      <c r="V34" t="n">
+      <c r="AA34" t="n">
         <v>11.5</v>
       </c>
-      <c r="W34" t="n">
+      <c r="AB34" t="n">
         <v>45</v>
       </c>
-      <c r="X34" t="n">
+      <c r="AC34" t="n">
         <v>30</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AD34" t="n">
         <v>37</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AE34" t="n">
         <v>6.9</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AF34" t="n">
         <v>6.2</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AG34" t="n">
         <v>14</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AH34" t="n">
         <v>65</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AI34" t="n">
         <v>500</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AJ34" t="n">
         <v>7.2</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AK34" t="n">
         <v>10</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AL34" t="n">
         <v>8.75</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AM34" t="n">
         <v>20</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AN34" t="n">
         <v>17.5</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AO34" t="n">
         <v>29</v>
       </c>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+      <c r="AR34" t="inlineStr"/>
+      <c r="AS34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4678,86 +5426,105 @@
         <v>4.45</v>
       </c>
       <c r="J35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M35" t="n">
         <v>1.04</v>
       </c>
-      <c r="K35" t="n">
+      <c r="N35" t="n">
         <v>8.25</v>
       </c>
-      <c r="L35" t="n">
+      <c r="O35" t="n">
         <v>1.22</v>
       </c>
-      <c r="M35" t="n">
+      <c r="P35" t="n">
         <v>3.85</v>
       </c>
-      <c r="N35" t="n">
+      <c r="Q35" t="n">
         <v>1.65</v>
       </c>
-      <c r="O35" t="n">
+      <c r="R35" t="n">
         <v>2.1</v>
       </c>
-      <c r="P35" t="n">
+      <c r="S35" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.33</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="V35" t="n">
         <v>3.05</v>
       </c>
-      <c r="R35" t="n">
+      <c r="W35" t="n">
         <v>1.65</v>
       </c>
-      <c r="S35" t="n">
+      <c r="X35" t="n">
         <v>2.1</v>
       </c>
-      <c r="T35" t="n">
+      <c r="Y35" t="n">
         <v>8.25</v>
       </c>
-      <c r="U35" t="n">
+      <c r="Z35" t="n">
         <v>8.75</v>
       </c>
-      <c r="V35" t="n">
+      <c r="AA35" t="n">
         <v>8</v>
       </c>
-      <c r="W35" t="n">
+      <c r="AB35" t="n">
         <v>13.5</v>
       </c>
-      <c r="X35" t="n">
+      <c r="AC35" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="AD35" t="n">
         <v>22</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AE35" t="n">
         <v>8.25</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AF35" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AG35" t="n">
         <v>14</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AH35" t="n">
         <v>55</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AI35" t="n">
         <v>350</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AJ35" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AK35" t="n">
         <v>27</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AL35" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AM35" t="n">
         <v>75</v>
       </c>
-      <c r="AI35" t="n">
+      <c r="AN35" t="n">
         <v>40</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AO35" t="n">
         <v>40</v>
       </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+      <c r="AR35" t="inlineStr"/>
+      <c r="AS35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4800,86 +5567,105 @@
         <v>4.6</v>
       </c>
       <c r="J36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M36" t="n">
         <v>1.05</v>
       </c>
-      <c r="K36" t="n">
+      <c r="N36" t="n">
         <v>8</v>
       </c>
-      <c r="L36" t="n">
+      <c r="O36" t="n">
         <v>1.23</v>
       </c>
-      <c r="M36" t="n">
+      <c r="P36" t="n">
         <v>3.75</v>
       </c>
-      <c r="N36" t="n">
+      <c r="Q36" t="n">
         <v>1.7</v>
       </c>
-      <c r="O36" t="n">
+      <c r="R36" t="n">
         <v>2.05</v>
       </c>
-      <c r="P36" t="n">
+      <c r="S36" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.34</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="V36" t="n">
         <v>3</v>
       </c>
-      <c r="R36" t="n">
+      <c r="W36" t="n">
         <v>1.65</v>
       </c>
-      <c r="S36" t="n">
+      <c r="X36" t="n">
         <v>2.12</v>
       </c>
-      <c r="T36" t="n">
+      <c r="Y36" t="n">
         <v>8</v>
       </c>
-      <c r="U36" t="n">
+      <c r="Z36" t="n">
         <v>9</v>
       </c>
-      <c r="V36" t="n">
+      <c r="AA36" t="n">
         <v>7.9</v>
       </c>
-      <c r="W36" t="n">
+      <c r="AB36" t="n">
         <v>14.5</v>
       </c>
-      <c r="X36" t="n">
+      <c r="AC36" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="AD36" t="n">
         <v>21</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AE36" t="n">
         <v>8</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AF36" t="n">
         <v>7</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AG36" t="n">
         <v>13</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AH36" t="n">
         <v>50</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AI36" t="n">
         <v>350</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AJ36" t="n">
         <v>14.5</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AK36" t="n">
         <v>29</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AL36" t="n">
         <v>14.5</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AM36" t="n">
         <v>80</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AN36" t="n">
         <v>40</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AO36" t="n">
         <v>40</v>
       </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4922,86 +5708,105 @@
         <v>2.15</v>
       </c>
       <c r="J37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M37" t="n">
         <v>1.06</v>
       </c>
-      <c r="K37" t="n">
+      <c r="N37" t="n">
         <v>7.5</v>
       </c>
-      <c r="L37" t="n">
+      <c r="O37" t="n">
         <v>1.27</v>
       </c>
-      <c r="M37" t="n">
+      <c r="P37" t="n">
         <v>3.45</v>
       </c>
-      <c r="N37" t="n">
+      <c r="Q37" t="n">
         <v>1.8</v>
       </c>
-      <c r="O37" t="n">
+      <c r="R37" t="n">
         <v>1.91</v>
       </c>
-      <c r="P37" t="n">
+      <c r="S37" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="U37" t="n">
         <v>1.39</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="V37" t="n">
         <v>2.77</v>
       </c>
-      <c r="R37" t="n">
+      <c r="W37" t="n">
         <v>1.65</v>
       </c>
-      <c r="S37" t="n">
+      <c r="X37" t="n">
         <v>2.12</v>
       </c>
-      <c r="T37" t="n">
+      <c r="Y37" t="n">
         <v>10.25</v>
       </c>
-      <c r="U37" t="n">
+      <c r="Z37" t="n">
         <v>17.5</v>
       </c>
-      <c r="V37" t="n">
+      <c r="AA37" t="n">
         <v>11</v>
       </c>
-      <c r="W37" t="n">
+      <c r="AB37" t="n">
         <v>40</v>
       </c>
-      <c r="X37" t="n">
+      <c r="AC37" t="n">
         <v>27</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="AD37" t="n">
         <v>32</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AE37" t="n">
         <v>7.5</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AF37" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AG37" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AH37" t="n">
         <v>50</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AI37" t="n">
         <v>350</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AJ37" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AK37" t="n">
         <v>11.25</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AL37" t="n">
         <v>8.5</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AM37" t="n">
         <v>21</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AN37" t="n">
         <v>16.5</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AO37" t="n">
         <v>24</v>
       </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+      <c r="AR37" t="inlineStr"/>
+      <c r="AS37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5044,86 +5849,105 @@
         <v>2.6</v>
       </c>
       <c r="J38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M38" t="n">
         <v>1.07</v>
       </c>
-      <c r="K38" t="n">
+      <c r="N38" t="n">
         <v>9</v>
       </c>
-      <c r="L38" t="n">
+      <c r="O38" t="n">
         <v>1.36</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>3</v>
       </c>
-      <c r="N38" t="n">
+      <c r="Q38" t="n">
         <v>2.15</v>
       </c>
-      <c r="O38" t="n">
+      <c r="R38" t="n">
         <v>1.67</v>
       </c>
-      <c r="P38" t="n">
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U38" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="V38" t="n">
         <v>2.63</v>
       </c>
-      <c r="R38" t="n">
+      <c r="W38" t="n">
         <v>1.83</v>
       </c>
-      <c r="S38" t="n">
+      <c r="X38" t="n">
         <v>1.83</v>
       </c>
-      <c r="T38" t="n">
+      <c r="Y38" t="n">
         <v>8</v>
       </c>
-      <c r="U38" t="n">
+      <c r="Z38" t="n">
         <v>13</v>
       </c>
-      <c r="V38" t="n">
+      <c r="AA38" t="n">
         <v>11</v>
       </c>
-      <c r="W38" t="n">
+      <c r="AB38" t="n">
         <v>29</v>
       </c>
-      <c r="X38" t="n">
+      <c r="AC38" t="n">
         <v>23</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="AD38" t="n">
         <v>34</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AE38" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AF38" t="n">
         <v>6</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AG38" t="n">
         <v>15</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AH38" t="n">
         <v>51</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AI38" t="n">
         <v>301</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AJ38" t="n">
         <v>8</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AK38" t="n">
         <v>12</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AL38" t="n">
         <v>10</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AM38" t="n">
         <v>26</v>
       </c>
-      <c r="AI38" t="n">
+      <c r="AN38" t="n">
         <v>21</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AO38" t="n">
         <v>34</v>
       </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+      <c r="AR38" t="inlineStr"/>
+      <c r="AS38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5166,85 +5990,108 @@
         <v>2.7</v>
       </c>
       <c r="J39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M39" t="n">
         <v>1.11</v>
       </c>
-      <c r="K39" t="n">
+      <c r="N39" t="n">
         <v>6.5</v>
       </c>
-      <c r="L39" t="n">
+      <c r="O39" t="n">
         <v>1.57</v>
       </c>
-      <c r="M39" t="n">
+      <c r="P39" t="n">
         <v>2.25</v>
       </c>
-      <c r="N39" t="n">
+      <c r="Q39" t="n">
         <v>2.7</v>
       </c>
-      <c r="O39" t="n">
+      <c r="R39" t="n">
         <v>1.44</v>
       </c>
-      <c r="P39" t="n">
+      <c r="S39" t="n">
+        <v>6</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U39" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="V39" t="n">
         <v>2.1</v>
       </c>
-      <c r="R39" t="n">
+      <c r="W39" t="n">
         <v>2.25</v>
       </c>
-      <c r="S39" t="n">
+      <c r="X39" t="n">
         <v>1.57</v>
       </c>
-      <c r="T39" t="n">
+      <c r="Y39" t="n">
         <v>6</v>
       </c>
-      <c r="U39" t="n">
+      <c r="Z39" t="n">
         <v>12</v>
       </c>
-      <c r="V39" t="n">
+      <c r="AA39" t="n">
         <v>12</v>
       </c>
-      <c r="W39" t="n">
+      <c r="AB39" t="n">
         <v>29</v>
       </c>
-      <c r="X39" t="n">
+      <c r="AC39" t="n">
         <v>29</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AD39" t="n">
         <v>41</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>101</v>
       </c>
       <c r="AE39" t="n">
         <v>6</v>
       </c>
       <c r="AF39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK39" t="n">
         <v>12</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AL39" t="n">
         <v>12</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AM39" t="n">
         <v>29</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AN39" t="n">
         <v>29</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AO39" t="n">
         <v>41</v>
+      </c>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+      <c r="AR39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="40">
@@ -5288,73 +6135,73 @@
         <v>6</v>
       </c>
       <c r="J40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6</v>
+      </c>
+      <c r="M40" t="n">
         <v>1.07</v>
       </c>
-      <c r="K40" t="n">
+      <c r="N40" t="n">
         <v>9</v>
       </c>
-      <c r="L40" t="n">
+      <c r="O40" t="n">
         <v>1.33</v>
       </c>
-      <c r="M40" t="n">
+      <c r="P40" t="n">
         <v>3.25</v>
       </c>
-      <c r="N40" t="n">
+      <c r="Q40" t="n">
         <v>2.1</v>
       </c>
-      <c r="O40" t="n">
+      <c r="R40" t="n">
         <v>1.7</v>
       </c>
-      <c r="P40" t="n">
+      <c r="S40" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.44</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="V40" t="n">
         <v>2.63</v>
       </c>
-      <c r="R40" t="n">
+      <c r="W40" t="n">
         <v>2.1</v>
       </c>
-      <c r="S40" t="n">
+      <c r="X40" t="n">
         <v>1.67</v>
       </c>
-      <c r="T40" t="n">
+      <c r="Y40" t="n">
         <v>6</v>
       </c>
-      <c r="U40" t="n">
+      <c r="Z40" t="n">
         <v>7</v>
       </c>
-      <c r="V40" t="n">
+      <c r="AA40" t="n">
         <v>9</v>
       </c>
-      <c r="W40" t="n">
+      <c r="AB40" t="n">
         <v>12</v>
       </c>
-      <c r="X40" t="n">
+      <c r="AC40" t="n">
         <v>15</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="AD40" t="n">
         <v>34</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AE40" t="n">
         <v>8</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AF40" t="n">
         <v>7</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>351</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>29</v>
       </c>
       <c r="AG40" t="n">
         <v>19</v>
@@ -5363,10 +6210,33 @@
         <v>67</v>
       </c>
       <c r="AI40" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN40" t="n">
         <v>51</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AO40" t="n">
         <v>51</v>
+      </c>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+      <c r="AR40" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2.1</v>
       </c>
     </row>
   </sheetData>
